--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N217"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,99 +1505,83 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -1613,12 +1589,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1629,7 +1605,7 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1653,12 +1629,12 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>change-right-of-way</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
@@ -1669,7 +1645,7 @@
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1693,12 +1669,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>change-right-of-way</t>
+          <t>new-right-of-way</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
@@ -1709,7 +1685,7 @@
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1733,12 +1709,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>new-right-of-way</t>
+          <t>new-public-road</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr"/>
@@ -1749,7 +1725,7 @@
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1773,28 +1749,36 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>new-public-road</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -1823,12 +1807,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
@@ -1837,7 +1821,7 @@
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1852,40 +1836,40 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1900,16 +1884,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1917,23 +1893,31 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H28" s="2" t="inlineStr"/>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -1967,21 +1951,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -1991,7 +1983,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2025,24 +2017,24 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2052,8 +2044,16 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2061,63 +2061,47 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2135,21 +2119,29 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2159,7 +2151,7 @@
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2193,19 +2185,19 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2215,7 +2207,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2249,19 +2241,19 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2305,19 +2297,19 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2361,19 +2353,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2383,7 +2375,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2407,29 +2399,21 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2463,12 +2447,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr"/>
@@ -2477,12 +2461,12 @@
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -2492,64 +2476,56 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
       <c r="H39" s="2" t="inlineStr"/>
       <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
       <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2557,23 +2533,31 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H40" s="2" t="inlineStr"/>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2607,21 +2591,29 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2631,7 +2623,7 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2665,24 +2657,24 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2692,72 +2684,64 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2775,21 +2759,29 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2799,7 +2791,7 @@
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2833,19 +2825,19 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2855,7 +2847,7 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2889,19 +2881,19 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2945,19 +2937,19 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
@@ -3001,19 +2993,19 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3023,77 +3015,61 @@
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>bio-geo-arch-con</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>protected-species-impact</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Protected species impact</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>bio-geo-arch-con</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
@@ -3101,12 +3077,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>protected-species-impact</t>
+          <t>biodiversity-features-impact</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3117,7 +3093,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3141,12 +3117,12 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>biodiversity-features-impact</t>
+          <t>geological-features-impact</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3157,7 +3133,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3172,21 +3148,29 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>geological-features-impact</t>
+          <t>bng-condition-applies</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Biodiversity gain condition applies</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3197,12 +3181,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3212,16 +3196,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>bng</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
           <t>How any natural habitats on the development site will be improved by the proposed works.</t>
@@ -3229,28 +3205,36 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-applies</t>
+          <t>bng-condition-exemption-reasons</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>exemption-type</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3279,12 +3263,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>exemption-type</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3293,12 +3277,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3317,22 +3301,22 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-exemption-reasons</t>
+          <t>bng-details</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>pre-development-date</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3341,12 +3325,12 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3375,12 +3359,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>pre-development-date</t>
+          <t>pre-development-biodiversity-value</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3389,12 +3373,12 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3423,12 +3407,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>pre-development-biodiversity-value</t>
+          <t>earlier-date-reason</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3437,17 +3421,17 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3471,12 +3455,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>earlier-date-reason</t>
+          <t>habitat-loss-after-2020</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3485,12 +3469,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3519,31 +3503,39 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-after-2020</t>
+          <t>habitat-loss-details</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>loss-date</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3577,24 +3569,24 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>loss-date</t>
+          <t>pre-loss-biodiversity-value</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -3633,29 +3625,29 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>pre-loss-biodiversity-value</t>
+          <t>supporting-evidence</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3679,39 +3671,31 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-details</t>
+          <t>metric-publication-date</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>supporting-evidence</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3735,12 +3719,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>metric-publication-date</t>
+          <t>irreplaceable-habitats</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3749,12 +3733,12 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3783,12 +3767,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats</t>
+          <t>irreplaceable-habitats-details</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3797,17 +3781,17 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3831,21 +3815,29 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats-details</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3855,7 +3847,7 @@
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3889,19 +3881,19 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3916,48 +3908,40 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>bng-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3974,27 +3958,27 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -4005,12 +3989,12 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
@@ -4020,16 +4004,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -4037,12 +4013,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -4053,17 +4029,17 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4077,12 +4053,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -4093,7 +4069,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4108,21 +4084,29 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4133,7 +4117,7 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4143,21 +4127,13 @@
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -4165,12 +4141,12 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
@@ -4181,12 +4157,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4205,12 +4181,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4221,12 +4197,12 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4236,37 +4212,53 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n"/>
-      <c r="B74" s="2" t="n"/>
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="H74" s="2" t="inlineStr"/>
       <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4276,16 +4268,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
+      <c r="A75" s="2" t="n"/>
+      <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -4303,12 +4287,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4317,7 +4301,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4351,12 +4335,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4365,7 +4349,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4389,22 +4373,22 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4413,7 +4397,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4447,12 +4431,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -4461,7 +4445,7 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
@@ -4495,12 +4479,12 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -4509,7 +4493,7 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
@@ -4533,95 +4517,95 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>total-fte</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr"/>
-      <c r="G81" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -4639,12 +4623,12 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -4653,17 +4637,17 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4671,12 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -4701,7 +4685,7 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4711,7 +4695,7 @@
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4725,36 +4709,28 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr"/>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
@@ -4773,12 +4749,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4789,17 +4765,17 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4789,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4829,12 +4805,12 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
@@ -4853,12 +4829,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4869,17 +4845,17 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4893,12 +4869,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4909,7 +4885,7 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
@@ -4933,12 +4909,12 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4949,7 +4925,7 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
@@ -4973,12 +4949,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
@@ -4989,36 +4965,44 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
@@ -5029,31 +5013,23 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -5061,12 +5037,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -5077,17 +5053,17 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5101,12 +5077,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5117,12 +5093,12 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
@@ -5141,12 +5117,12 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
@@ -5157,17 +5133,17 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5181,12 +5157,12 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
@@ -5197,7 +5173,7 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5221,12 +5197,12 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
@@ -5237,12 +5213,12 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5252,21 +5228,29 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
@@ -5277,12 +5261,12 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
@@ -5292,16 +5276,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -5309,12 +5285,12 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
@@ -5325,17 +5301,17 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5325,12 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
@@ -5365,17 +5341,17 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5389,12 +5365,12 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>drainage-system-details</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
@@ -5405,36 +5381,44 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n"/>
-      <c r="B101" s="2" t="n"/>
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>What hazardous substances may be used as part of the development</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>involves-hazardous-substances</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr"/>
@@ -5445,31 +5429,23 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A102" s="2" t="n"/>
+      <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
           <t>What hazardous substances may be used as part of the development</t>
@@ -5477,23 +5453,31 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>involves-hazardous-substances</t>
+          <t>substance-types</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>hazardous-substance-type</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr"/>
       <c r="J102" s="2" t="inlineStr"/>
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5527,12 +5511,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-type</t>
+          <t>hazardous-substance-other</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5541,17 +5525,17 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5575,12 +5559,12 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-other</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5589,17 +5573,17 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5613,36 +5597,28 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hazardous-sub-consent-req</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5661,12 +5637,12 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>hazardous-sub-consent-details</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr"/>
@@ -5677,71 +5653,79 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-details</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H107" s="2" t="inlineStr"/>
       <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr"/>
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A108" s="2" t="n"/>
+      <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -5759,12 +5743,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5773,17 +5757,17 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5807,31 +5791,39 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J109" s="2" t="inlineStr"/>
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5865,29 +5857,29 @@
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="J110" s="2" t="inlineStr"/>
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5921,29 +5913,37 @@
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="J111" s="2" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N111" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5987,17 +5987,17 @@
       </c>
       <c r="J112" s="2" t="inlineStr">
         <is>
-          <t>open-time</t>
+          <t>close-time</t>
         </is>
       </c>
       <c r="K112" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
@@ -6031,76 +6031,68 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I113" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr"/>
+      <c r="J113" s="2" t="inlineStr"/>
+      <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N113" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>hours-not-known</t>
+          <t>building-element-type</t>
         </is>
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Hours not known</t>
+          <t>Building element type</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr"/>
@@ -6109,31 +6101,23 @@
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -6151,12 +6135,12 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr"/>
@@ -6165,17 +6149,17 @@
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N115" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6183,12 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
@@ -6213,7 +6197,7 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6247,12 +6231,12 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -6261,12 +6245,12 @@
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
@@ -6295,12 +6279,12 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
@@ -6309,7 +6293,7 @@
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6333,31 +6317,23 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr"/>
       <c r="H119" s="2" t="inlineStr"/>
       <c r="I119" s="2" t="inlineStr"/>
       <c r="J119" s="2" t="inlineStr"/>
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6367,7 +6343,7 @@
       </c>
       <c r="N119" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6381,28 +6357,36 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H120" s="2" t="inlineStr"/>
       <c r="I120" s="2" t="inlineStr"/>
       <c r="J120" s="2" t="inlineStr"/>
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N120" s="2" t="inlineStr">
@@ -6431,12 +6415,12 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr"/>
@@ -6445,7 +6429,7 @@
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6460,45 +6444,45 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n"/>
-      <c r="B122" s="2" t="n"/>
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>non-residential-change</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
       <c r="H122" s="2" t="inlineStr"/>
       <c r="I122" s="2" t="inlineStr"/>
       <c r="J122" s="2" t="inlineStr"/>
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
@@ -6508,16 +6492,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>non-res-floorspace</t>
-        </is>
-      </c>
+      <c r="A123" s="2" t="n"/>
+      <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
           <t>Details of changes to non-residential floorspace in the proposed development.</t>
@@ -6525,28 +6501,36 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>non-residential-change</t>
+          <t>floorspace-details</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr"/>
-      <c r="G123" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H123" s="2" t="inlineStr"/>
       <c r="I123" s="2" t="inlineStr"/>
       <c r="J123" s="2" t="inlineStr"/>
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
@@ -6575,12 +6559,12 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>specified-use</t>
         </is>
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
@@ -6589,17 +6573,17 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6623,12 +6607,12 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>specified-use</t>
+          <t>existing-gross-floorspace</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr"/>
@@ -6637,17 +6621,17 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6671,12 +6655,12 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>existing-gross-floorspace</t>
+          <t>floorspace-lost</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr"/>
@@ -6685,7 +6669,7 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
@@ -6719,12 +6703,12 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>floorspace-lost</t>
+          <t>total-gross-proposed</t>
         </is>
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr"/>
@@ -6733,7 +6717,7 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
@@ -6767,12 +6751,12 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>total-gross-proposed</t>
+          <t>net-additional-floorspace</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -6781,7 +6765,7 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
@@ -6805,22 +6789,22 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details</t>
+          <t>room-details</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>net-additional-floorspace</t>
+          <t>use-class-accommodation</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -6829,12 +6813,12 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N129" s="2" t="inlineStr">
@@ -6863,12 +6847,12 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>use-class-accommodation</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -6877,17 +6861,17 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N130" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6911,12 +6895,12 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>existing-rooms-lost</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -6925,17 +6909,17 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N131" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6959,12 +6943,12 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>existing-rooms-lost</t>
+          <t>total-rooms-proposed</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -6973,7 +6957,7 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
@@ -7007,12 +6991,12 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>total-rooms-proposed</t>
+          <t>net-additional-rooms</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -7021,7 +7005,7 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
@@ -7036,45 +7020,45 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n"/>
-      <c r="B134" s="2" t="n"/>
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>room-details</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>net-additional-rooms</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr"/>
+      <c r="G134" s="2" t="inlineStr"/>
       <c r="H134" s="2" t="inlineStr"/>
       <c r="I134" s="2" t="inlineStr"/>
       <c r="J134" s="2" t="inlineStr"/>
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
@@ -7084,16 +7068,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A135" s="2" t="n"/>
+      <c r="B135" s="2" t="n"/>
       <c r="C135" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -7101,12 +7077,12 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F135" s="2" t="inlineStr"/>
@@ -7117,7 +7093,7 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
@@ -7141,33 +7117,49 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr"/>
-      <c r="H136" s="2" t="inlineStr"/>
-      <c r="I136" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J136" s="2" t="inlineStr"/>
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7201,19 +7193,19 @@
       </c>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J137" s="2" t="inlineStr"/>
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7223,7 +7215,7 @@
       </c>
       <c r="N137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7257,19 +7249,19 @@
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J138" s="2" t="inlineStr"/>
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7313,19 +7305,19 @@
       </c>
       <c r="H139" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I139" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7369,19 +7361,19 @@
       </c>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I140" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J140" s="2" t="inlineStr"/>
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7391,7 +7383,7 @@
       </c>
       <c r="N140" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7415,34 +7407,26 @@
       </c>
       <c r="F141" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H141" s="2" t="inlineStr"/>
+      <c r="I141" s="2" t="inlineStr"/>
       <c r="J141" s="2" t="inlineStr"/>
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
@@ -7461,36 +7445,28 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr"/>
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
@@ -7509,23 +7485,31 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr"/>
-      <c r="G143" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H143" s="2" t="inlineStr"/>
       <c r="I143" s="2" t="inlineStr"/>
       <c r="J143" s="2" t="inlineStr"/>
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
@@ -7535,7 +7519,7 @@
       </c>
       <c r="N143" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7559,12 +7543,12 @@
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -7573,12 +7557,12 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
@@ -7597,41 +7581,33 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr"/>
       <c r="H145" s="2" t="inlineStr"/>
       <c r="I145" s="2" t="inlineStr"/>
       <c r="J145" s="2" t="inlineStr"/>
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N145" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7621,12 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -7661,12 +7637,12 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N146" s="2" t="inlineStr">
@@ -7685,12 +7661,12 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -7701,7 +7677,7 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
@@ -7725,12 +7701,12 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -7741,12 +7717,12 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
@@ -7756,21 +7732,29 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr"/>
@@ -7781,31 +7765,23 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A150" s="2" t="n"/>
+      <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -7813,12 +7789,12 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F150" s="2" t="inlineStr"/>
@@ -7829,17 +7805,17 @@
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N150" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7853,12 +7829,12 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr"/>
@@ -7869,7 +7845,7 @@
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
@@ -7893,12 +7869,12 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F152" s="2" t="inlineStr"/>
@@ -7909,7 +7885,7 @@
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
@@ -7933,12 +7909,12 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F153" s="2" t="inlineStr"/>
@@ -7949,7 +7925,7 @@
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
@@ -7964,21 +7940,29 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n"/>
-      <c r="B154" s="2" t="n"/>
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F154" s="2" t="inlineStr"/>
@@ -7989,7 +7973,7 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
@@ -7999,21 +7983,13 @@
       </c>
       <c r="N154" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A155" s="2" t="n"/>
+      <c r="B155" s="2" t="n"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -8021,12 +7997,12 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F155" s="2" t="inlineStr"/>
@@ -8037,12 +8013,12 @@
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
@@ -8061,28 +8037,36 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H156" s="2" t="inlineStr"/>
       <c r="I156" s="2" t="inlineStr"/>
       <c r="J156" s="2" t="inlineStr"/>
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
@@ -8111,12 +8095,12 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr"/>
@@ -8125,17 +8109,17 @@
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N157" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8159,12 +8143,12 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>total-capacity</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr"/>
@@ -8173,12 +8157,12 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N158" s="2" t="inlineStr">
@@ -8207,12 +8191,12 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr"/>
@@ -8221,7 +8205,7 @@
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
@@ -8245,22 +8229,22 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr"/>
@@ -8269,7 +8253,7 @@
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
@@ -8303,12 +8287,12 @@
       </c>
       <c r="F161" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr"/>
@@ -8317,7 +8301,7 @@
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
@@ -8351,12 +8335,12 @@
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr"/>
@@ -8365,7 +8349,7 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
@@ -8399,12 +8383,12 @@
       </c>
       <c r="F163" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr"/>
@@ -8413,7 +8397,7 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
@@ -8428,64 +8412,56 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n"/>
-      <c r="B164" s="2" t="n"/>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F164" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G164" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr"/>
+      <c r="G164" s="2" t="inlineStr"/>
       <c r="H164" s="2" t="inlineStr"/>
       <c r="I164" s="2" t="inlineStr"/>
       <c r="J164" s="2" t="inlineStr"/>
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A165" s="2" t="n"/>
+      <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -8493,12 +8469,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8509,12 +8485,12 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
@@ -8533,12 +8509,12 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -8549,17 +8525,17 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8573,12 +8549,12 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr"/>
@@ -8589,17 +8565,17 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8613,12 +8589,12 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F168" s="2" t="inlineStr"/>
@@ -8629,17 +8605,17 @@
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N168" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8629,12 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>pip-reference</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="F169" s="2" t="inlineStr"/>
@@ -8669,12 +8645,12 @@
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N169" s="2" t="inlineStr">
@@ -8693,12 +8669,12 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>pip-reference</t>
+          <t>is-psi</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
+          <t>Is public service infrastructure</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr"/>
@@ -8709,36 +8685,44 @@
       <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N170" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n"/>
-      <c r="B171" s="2" t="n"/>
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>is-psi</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="F171" s="2" t="inlineStr"/>
@@ -8749,7 +8733,7 @@
       <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
@@ -8764,16 +8748,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A172" s="2" t="n"/>
+      <c r="B172" s="2" t="n"/>
       <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -8781,28 +8757,36 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr"/>
-      <c r="G172" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H172" s="2" t="inlineStr"/>
       <c r="I172" s="2" t="inlineStr"/>
       <c r="J172" s="2" t="inlineStr"/>
       <c r="K172" s="2" t="inlineStr"/>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N172" s="2" t="inlineStr">
@@ -8831,12 +8815,12 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -8845,7 +8829,7 @@
       <c r="K173" s="2" t="inlineStr"/>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
@@ -8879,26 +8863,34 @@
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H174" s="2" t="inlineStr"/>
-      <c r="I174" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J174" s="2" t="inlineStr"/>
       <c r="K174" s="2" t="inlineStr"/>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N174" s="2" t="inlineStr">
@@ -8937,19 +8929,27 @@
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J175" s="2" t="inlineStr"/>
-      <c r="K175" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
@@ -9003,27 +9003,27 @@
       </c>
       <c r="J176" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K176" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N176" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9067,17 +9067,17 @@
       </c>
       <c r="J177" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K177" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="N177" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9121,27 +9121,19 @@
       </c>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr"/>
+      <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
@@ -9151,7 +9143,7 @@
       </c>
       <c r="N178" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9175,39 +9167,39 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I179" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="J179" s="2" t="inlineStr"/>
       <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N179" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9241,19 +9233,27 @@
       </c>
       <c r="H180" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I180" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J180" s="2" t="inlineStr"/>
-      <c r="K180" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M180" s="2" t="inlineStr">
@@ -9307,27 +9307,27 @@
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K181" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M181" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N181" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9371,17 +9371,17 @@
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K182" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M182" s="2" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="N182" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9425,27 +9425,19 @@
       </c>
       <c r="H183" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I183" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J183" s="2" t="inlineStr"/>
+      <c r="K183" s="2" t="inlineStr"/>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M183" s="2" t="inlineStr">
@@ -9455,7 +9447,7 @@
       </c>
       <c r="N183" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9469,39 +9461,23 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr"/>
+      <c r="G184" s="2" t="inlineStr"/>
+      <c r="H184" s="2" t="inlineStr"/>
+      <c r="I184" s="2" t="inlineStr"/>
       <c r="J184" s="2" t="inlineStr"/>
       <c r="K184" s="2" t="inlineStr"/>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M184" s="2" t="inlineStr">
@@ -9511,7 +9487,7 @@
       </c>
       <c r="N184" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9525,12 +9501,12 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F185" s="2" t="inlineStr"/>
@@ -9541,7 +9517,7 @@
       <c r="K185" s="2" t="inlineStr"/>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M185" s="2" t="inlineStr">
@@ -9565,12 +9541,12 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F186" s="2" t="inlineStr"/>
@@ -9581,7 +9557,7 @@
       <c r="K186" s="2" t="inlineStr"/>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M186" s="2" t="inlineStr">
@@ -9596,21 +9572,29 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n"/>
-      <c r="B187" s="2" t="n"/>
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="F187" s="2" t="inlineStr"/>
@@ -9621,7 +9605,7 @@
       <c r="K187" s="2" t="inlineStr"/>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M187" s="2" t="inlineStr">
@@ -9636,16 +9620,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A188" s="2" t="n"/>
+      <c r="B188" s="2" t="n"/>
       <c r="C188" s="2" t="inlineStr">
         <is>
           <t>How big the site is including relevant measurements</t>
@@ -9653,12 +9629,12 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F188" s="2" t="inlineStr"/>
@@ -9669,52 +9645,68 @@
       <c r="K188" s="2" t="inlineStr"/>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M188" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N188" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n"/>
-      <c r="B189" s="2" t="n"/>
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr"/>
-      <c r="G189" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H189" s="2" t="inlineStr"/>
       <c r="I189" s="2" t="inlineStr"/>
       <c r="J189" s="2" t="inlineStr"/>
       <c r="K189" s="2" t="inlineStr"/>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M189" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N189" s="2" t="inlineStr">
@@ -9724,16 +9716,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A190" s="2" t="n"/>
+      <c r="B190" s="2" t="n"/>
       <c r="C190" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -9751,12 +9735,12 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr"/>
@@ -9765,12 +9749,12 @@
       <c r="K190" s="2" t="inlineStr"/>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M190" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N190" s="2" t="inlineStr">
@@ -9799,12 +9783,12 @@
       </c>
       <c r="F191" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr"/>
@@ -9813,7 +9797,7 @@
       <c r="K191" s="2" t="inlineStr"/>
       <c r="L191" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M191" s="2" t="inlineStr">
@@ -9847,12 +9831,12 @@
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr"/>
@@ -9861,12 +9845,12 @@
       <c r="K192" s="2" t="inlineStr"/>
       <c r="L192" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M192" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N192" s="2" t="inlineStr">
@@ -9895,12 +9879,12 @@
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr"/>
@@ -9909,7 +9893,7 @@
       <c r="K193" s="2" t="inlineStr"/>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M193" s="2" t="inlineStr">
@@ -9943,12 +9927,12 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr"/>
@@ -9957,7 +9941,7 @@
       <c r="K194" s="2" t="inlineStr"/>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M194" s="2" t="inlineStr">
@@ -9991,12 +9975,12 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr"/>
@@ -10005,7 +9989,7 @@
       <c r="K195" s="2" t="inlineStr"/>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M195" s="2" t="inlineStr">
@@ -10039,12 +10023,12 @@
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr"/>
@@ -10053,12 +10037,12 @@
       <c r="K196" s="2" t="inlineStr"/>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M196" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N196" s="2" t="inlineStr">
@@ -10087,12 +10071,12 @@
       </c>
       <c r="F197" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr"/>
@@ -10101,7 +10085,7 @@
       <c r="K197" s="2" t="inlineStr"/>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M197" s="2" t="inlineStr">
@@ -10116,64 +10100,56 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n"/>
-      <c r="B198" s="2" t="n"/>
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr"/>
+      <c r="G198" s="2" t="inlineStr"/>
       <c r="H198" s="2" t="inlineStr"/>
       <c r="I198" s="2" t="inlineStr"/>
       <c r="J198" s="2" t="inlineStr"/>
       <c r="K198" s="2" t="inlineStr"/>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M198" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N198" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A199" s="2" t="n"/>
+      <c r="B199" s="2" t="n"/>
       <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -10181,12 +10157,12 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F199" s="2" t="inlineStr"/>
@@ -10197,12 +10173,12 @@
       <c r="K199" s="2" t="inlineStr"/>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M199" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N199" s="2" t="inlineStr">
@@ -10221,12 +10197,12 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F200" s="2" t="inlineStr"/>
@@ -10237,17 +10213,17 @@
       <c r="K200" s="2" t="inlineStr"/>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M200" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N200" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10261,23 +10237,31 @@
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr"/>
-      <c r="G201" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H201" s="2" t="inlineStr"/>
       <c r="I201" s="2" t="inlineStr"/>
       <c r="J201" s="2" t="inlineStr"/>
       <c r="K201" s="2" t="inlineStr"/>
       <c r="L201" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M201" s="2" t="inlineStr">
@@ -10287,7 +10271,7 @@
       </c>
       <c r="N201" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10311,12 +10295,12 @@
       </c>
       <c r="F202" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr"/>
@@ -10325,7 +10309,7 @@
       <c r="K202" s="2" t="inlineStr"/>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M202" s="2" t="inlineStr">
@@ -10359,12 +10343,12 @@
       </c>
       <c r="F203" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr"/>
@@ -10373,7 +10357,7 @@
       <c r="K203" s="2" t="inlineStr"/>
       <c r="L203" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M203" s="2" t="inlineStr">
@@ -10388,45 +10372,45 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n"/>
-      <c r="B204" s="2" t="n"/>
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>trade-effluent</t>
+        </is>
+      </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr"/>
+      <c r="G204" s="2" t="inlineStr"/>
       <c r="H204" s="2" t="inlineStr"/>
       <c r="I204" s="2" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr"/>
       <c r="K204" s="2" t="inlineStr"/>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M204" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N204" s="2" t="inlineStr">
@@ -10436,16 +10420,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A205" s="2" t="n"/>
+      <c r="B205" s="2" t="n"/>
       <c r="C205" s="2" t="inlineStr">
         <is>
           <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
@@ -10453,12 +10429,12 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F205" s="2" t="inlineStr"/>
@@ -10469,36 +10445,44 @@
       <c r="K205" s="2" t="inlineStr"/>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M205" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N205" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n"/>
-      <c r="B206" s="2" t="n"/>
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>trees-on-site</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="F206" s="2" t="inlineStr"/>
@@ -10509,31 +10493,23 @@
       <c r="K206" s="2" t="inlineStr"/>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="M206" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N206" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A207" s="2" t="n"/>
+      <c r="B207" s="2" t="n"/>
       <c r="C207" s="2" t="inlineStr">
         <is>
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
@@ -10541,12 +10517,12 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>trees-on-site</t>
+          <t>trees-on-adj-land</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="F207" s="2" t="inlineStr"/>
@@ -10557,7 +10533,7 @@
       <c r="K207" s="2" t="inlineStr"/>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="M207" s="2" t="inlineStr">
@@ -10572,37 +10548,53 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n"/>
-      <c r="B208" s="2" t="n"/>
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>vehicle-parking</t>
+        </is>
+      </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>trees-on-adj-land</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr"/>
-      <c r="G208" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>parking-space-type</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="H208" s="2" t="inlineStr"/>
       <c r="I208" s="2" t="inlineStr"/>
       <c r="J208" s="2" t="inlineStr"/>
       <c r="K208" s="2" t="inlineStr"/>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="M208" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N208" s="2" t="inlineStr">
@@ -10612,16 +10604,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-parking</t>
-        </is>
-      </c>
+      <c r="A209" s="2" t="n"/>
+      <c r="B209" s="2" t="n"/>
       <c r="C209" s="2" t="inlineStr">
         <is>
           <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
@@ -10639,12 +10623,12 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>parking-space-type</t>
+          <t>vehicle-type-other</t>
         </is>
       </c>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr"/>
@@ -10653,17 +10637,17 @@
       <c r="K209" s="2" t="inlineStr"/>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M209" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N209" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10687,12 +10671,12 @@
       </c>
       <c r="F210" s="2" t="inlineStr">
         <is>
-          <t>vehicle-type-other</t>
+          <t>total-existing</t>
         </is>
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr"/>
@@ -10701,17 +10685,17 @@
       <c r="K210" s="2" t="inlineStr"/>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M210" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N210" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10735,12 +10719,12 @@
       </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
-          <t>total-existing</t>
+          <t>total-proposed</t>
         </is>
       </c>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr"/>
@@ -10749,7 +10733,7 @@
       <c r="K211" s="2" t="inlineStr"/>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M211" s="2" t="inlineStr">
@@ -10783,12 +10767,12 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
-          <t>total-proposed</t>
+          <t>difference-in-spaces</t>
         </is>
       </c>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr"/>
@@ -10797,7 +10781,7 @@
       <c r="K212" s="2" t="inlineStr"/>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="M212" s="2" t="inlineStr">
@@ -10812,45 +10796,45 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n"/>
-      <c r="B213" s="2" t="n"/>
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-collection</t>
+        </is>
+      </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>needs-waste-storage-area</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>difference-in-spaces</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Needs waste storage area</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr"/>
+      <c r="G213" s="2" t="inlineStr"/>
       <c r="H213" s="2" t="inlineStr"/>
       <c r="I213" s="2" t="inlineStr"/>
       <c r="J213" s="2" t="inlineStr"/>
       <c r="K213" s="2" t="inlineStr"/>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="M213" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N213" s="2" t="inlineStr">
@@ -10860,16 +10844,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
+      <c r="A214" s="2" t="n"/>
+      <c r="B214" s="2" t="n"/>
       <c r="C214" s="2" t="inlineStr">
         <is>
           <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
@@ -10877,12 +10853,12 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>needs-waste-storage-area</t>
+          <t>waste-storage-area-details</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="F214" s="2" t="inlineStr"/>
@@ -10893,17 +10869,17 @@
       <c r="K214" s="2" t="inlineStr"/>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="M214" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N214" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10917,12 +10893,12 @@
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>waste-storage-area-details</t>
+          <t>separate-recycling-arrangements</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements</t>
         </is>
       </c>
       <c r="F215" s="2" t="inlineStr"/>
@@ -10933,17 +10909,17 @@
       <c r="K215" s="2" t="inlineStr"/>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Does the proposal include separate recycling arrangements</t>
         </is>
       </c>
       <c r="M215" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N215" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10957,12 +10933,12 @@
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>separate-recycling-arrangements</t>
+          <t>separate-recycling-arrangements-details</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="F216" s="2" t="inlineStr"/>
@@ -10973,55 +10949,15 @@
       <c r="K216" s="2" t="inlineStr"/>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="M216" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N216" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n"/>
-      <c r="B217" s="2" t="n"/>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>separate-recycling-arrangements-details</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr"/>
-      <c r="G217" s="2" t="inlineStr"/>
-      <c r="H217" s="2" t="inlineStr"/>
-      <c r="I217" s="2" t="inlineStr"/>
-      <c r="J217" s="2" t="inlineStr"/>
-      <c r="K217" s="2" t="inlineStr"/>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="M217" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N217" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -11029,68 +10965,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B135:B149"/>
-    <mergeCell ref="B123:B134"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B68"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A155:A164"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="A123:A134"/>
-    <mergeCell ref="B172:B187"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="A165:A171"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A190:A198"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B155:B164"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B53:B67"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="A135:A149"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="B165:B171"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="A172:A187"/>
-    <mergeCell ref="B190:B198"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A199:A204"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A189:A197"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A114:A121"/>
+    <mergeCell ref="B52:B66"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B134:B148"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B154:B163"/>
+    <mergeCell ref="B171:B186"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A67"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B122:B133"/>
+    <mergeCell ref="B81:B90"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A171:A186"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B189:B197"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A134:A148"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="A154:A163"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="A52:A66"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="B114:B121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N216"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,99 +1441,83 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -1549,12 +1525,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
@@ -1565,7 +1541,7 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1589,12 +1565,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>change-right-of-way</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1605,7 +1581,7 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1629,12 +1605,12 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>change-right-of-way</t>
+          <t>new-right-of-way</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
@@ -1645,7 +1621,7 @@
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1669,12 +1645,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>new-right-of-way</t>
+          <t>new-public-road</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
@@ -1685,7 +1661,7 @@
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1709,28 +1685,36 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>new-public-road</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -1759,12 +1743,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr"/>
@@ -1773,7 +1757,7 @@
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1788,40 +1772,40 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1836,16 +1820,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1853,23 +1829,31 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1903,21 +1887,29 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -1927,7 +1919,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1961,24 +1953,24 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -1988,8 +1980,16 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1997,63 +1997,47 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2071,21 +2055,29 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2095,7 +2087,7 @@
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2129,19 +2121,19 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2151,7 +2143,7 @@
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2185,19 +2177,19 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2241,19 +2233,19 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2297,19 +2289,19 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2319,7 +2311,7 @@
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2343,29 +2335,21 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2399,12 +2383,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr"/>
@@ -2413,12 +2397,12 @@
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -2428,64 +2412,56 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="2" t="n"/>
       <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2493,23 +2469,31 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H39" s="2" t="inlineStr"/>
       <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2543,21 +2527,29 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2567,7 +2559,7 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2601,24 +2593,24 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -2628,72 +2620,64 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2711,21 +2695,29 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2735,7 +2727,7 @@
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2769,19 +2761,19 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2791,7 +2783,7 @@
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2825,19 +2817,19 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2881,19 +2873,19 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2937,19 +2929,19 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
@@ -2959,77 +2951,61 @@
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>bio-geo-arch-con</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>protected-species-impact</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Protected species impact</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>bio-geo-arch-con</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
@@ -3037,12 +3013,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>protected-species-impact</t>
+          <t>biodiversity-features-impact</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3053,7 +3029,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3077,12 +3053,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>biodiversity-features-impact</t>
+          <t>geological-features-impact</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3093,7 +3069,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3108,21 +3084,29 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>geological-features-impact</t>
+          <t>bng-condition-applies</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Biodiversity gain condition applies</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3133,12 +3117,12 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -3148,16 +3132,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>bng</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
           <t>How any natural habitats on the development site will be improved by the proposed works.</t>
@@ -3165,28 +3141,36 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-applies</t>
+          <t>bng-condition-exemption-reasons</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>exemption-type</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3215,12 +3199,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>exemption-type</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3229,12 +3213,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3253,22 +3237,22 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-exemption-reasons</t>
+          <t>bng-details</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>pre-development-date</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3277,12 +3261,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3311,12 +3295,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>pre-development-date</t>
+          <t>pre-development-biodiversity-value</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3325,12 +3309,12 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3359,12 +3343,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>pre-development-biodiversity-value</t>
+          <t>earlier-date-reason</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3373,17 +3357,17 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3391,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>earlier-date-reason</t>
+          <t>habitat-loss-after-2020</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3421,12 +3405,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3455,31 +3439,39 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-after-2020</t>
+          <t>habitat-loss-details</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>loss-date</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3513,24 +3505,24 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>loss-date</t>
+          <t>pre-loss-biodiversity-value</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -3569,29 +3561,29 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>pre-loss-biodiversity-value</t>
+          <t>supporting-evidence</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3615,39 +3607,31 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-details</t>
+          <t>metric-publication-date</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>supporting-evidence</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3655,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>metric-publication-date</t>
+          <t>irreplaceable-habitats</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3685,12 +3669,12 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3719,12 +3703,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats</t>
+          <t>irreplaceable-habitats-details</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3733,17 +3717,17 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3767,21 +3751,29 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats-details</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3791,7 +3783,7 @@
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3825,19 +3817,19 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3852,48 +3844,40 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>bng-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3910,27 +3894,27 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3941,12 +3925,12 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -3956,16 +3940,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3973,12 +3949,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3989,17 +3965,17 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4013,12 +3989,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -4029,7 +4005,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4044,21 +4020,29 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -4069,7 +4053,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4079,21 +4063,13 @@
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -4101,12 +4077,12 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4117,12 +4093,12 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4141,12 +4117,12 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
@@ -4157,12 +4133,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4172,37 +4148,53 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n"/>
-      <c r="B73" s="2" t="n"/>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr"/>
-      <c r="G73" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="H73" s="2" t="inlineStr"/>
       <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4212,16 +4204,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
+      <c r="A74" s="2" t="n"/>
+      <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -4239,12 +4223,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4253,7 +4237,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4287,12 +4271,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4301,7 +4285,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4325,22 +4309,22 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4349,7 +4333,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4383,12 +4367,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4397,7 +4381,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4431,12 +4415,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -4445,7 +4429,7 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
@@ -4469,95 +4453,95 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>total-fte</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr"/>
+      <c r="G79" s="2" t="inlineStr"/>
       <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -4575,12 +4559,12 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr"/>
@@ -4589,17 +4573,17 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4623,12 +4607,12 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -4637,7 +4621,7 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
@@ -4647,7 +4631,7 @@
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4661,36 +4645,28 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4709,12 +4685,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4725,17 +4701,17 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4749,12 +4725,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4765,12 +4741,12 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
@@ -4789,12 +4765,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4805,17 +4781,17 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4829,12 +4805,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4845,7 +4821,7 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
@@ -4869,12 +4845,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4885,7 +4861,7 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
@@ -4909,12 +4885,12 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4925,36 +4901,44 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
@@ -4965,31 +4949,23 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -4997,12 +4973,12 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
@@ -5013,17 +4989,17 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5037,12 +5013,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -5053,12 +5029,12 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
@@ -5077,12 +5053,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5093,17 +5069,17 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5117,12 +5093,12 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
@@ -5133,7 +5109,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5157,12 +5133,12 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
@@ -5173,12 +5149,12 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
@@ -5188,21 +5164,29 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
@@ -5213,12 +5197,12 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5228,16 +5212,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -5245,12 +5221,12 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
@@ -5261,17 +5237,17 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5285,12 +5261,12 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
@@ -5301,17 +5277,17 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5325,12 +5301,12 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>drainage-system-details</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
@@ -5341,36 +5317,44 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n"/>
-      <c r="B100" s="2" t="n"/>
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>What hazardous substances may be used as part of the development</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>involves-hazardous-substances</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
@@ -5381,31 +5365,23 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A101" s="2" t="n"/>
+      <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
           <t>What hazardous substances may be used as part of the development</t>
@@ -5413,23 +5389,31 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>involves-hazardous-substances</t>
+          <t>substance-types</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>hazardous-substance-type</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="H101" s="2" t="inlineStr"/>
       <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5463,12 +5447,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-type</t>
+          <t>hazardous-substance-other</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5477,17 +5461,17 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5511,12 +5495,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-other</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5525,17 +5509,17 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5549,36 +5533,28 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hazardous-sub-consent-req</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr"/>
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5597,12 +5573,12 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>hazardous-sub-consent-details</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr"/>
@@ -5613,71 +5589,79 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n"/>
-      <c r="B106" s="2" t="n"/>
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-details</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr"/>
-      <c r="G106" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H106" s="2" t="inlineStr"/>
       <c r="I106" s="2" t="inlineStr"/>
       <c r="J106" s="2" t="inlineStr"/>
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A107" s="2" t="n"/>
+      <c r="B107" s="2" t="n"/>
       <c r="C107" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -5695,12 +5679,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5709,17 +5693,17 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5743,31 +5727,39 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H108" s="2" t="inlineStr"/>
-      <c r="I108" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J108" s="2" t="inlineStr"/>
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5801,29 +5793,29 @@
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="J109" s="2" t="inlineStr"/>
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5857,29 +5849,37 @@
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="J110" s="2" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5923,17 +5923,17 @@
       </c>
       <c r="J111" s="2" t="inlineStr">
         <is>
-          <t>open-time</t>
+          <t>close-time</t>
         </is>
       </c>
       <c r="K111" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5967,76 +5967,68 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr"/>
+      <c r="J112" s="2" t="inlineStr"/>
+      <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>hours-not-known</t>
+          <t>building-element-type</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Hours not known</t>
+          <t>Building element type</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr"/>
@@ -6045,31 +6037,23 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N113" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A114" s="2" t="n"/>
+      <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -6087,12 +6071,12 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr"/>
@@ -6101,17 +6085,17 @@
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6135,12 +6119,12 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr"/>
@@ -6149,7 +6133,7 @@
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -6183,12 +6167,12 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
@@ -6197,12 +6181,12 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N116" s="2" t="inlineStr">
@@ -6231,12 +6215,12 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -6245,7 +6229,7 @@
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6269,31 +6253,23 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr"/>
       <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6303,7 +6279,7 @@
       </c>
       <c r="N118" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6317,28 +6293,36 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H119" s="2" t="inlineStr"/>
       <c r="I119" s="2" t="inlineStr"/>
       <c r="J119" s="2" t="inlineStr"/>
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N119" s="2" t="inlineStr">
@@ -6367,12 +6351,12 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
@@ -6381,7 +6365,7 @@
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6396,45 +6380,45 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n"/>
-      <c r="B121" s="2" t="n"/>
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>non-residential-change</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
       <c r="H121" s="2" t="inlineStr"/>
       <c r="I121" s="2" t="inlineStr"/>
       <c r="J121" s="2" t="inlineStr"/>
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N121" s="2" t="inlineStr">
@@ -6444,16 +6428,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>non-res-floorspace</t>
-        </is>
-      </c>
+      <c r="A122" s="2" t="n"/>
+      <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
           <t>Details of changes to non-residential floorspace in the proposed development.</t>
@@ -6461,28 +6437,36 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>non-residential-change</t>
+          <t>floorspace-details</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr"/>
-      <c r="G122" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H122" s="2" t="inlineStr"/>
       <c r="I122" s="2" t="inlineStr"/>
       <c r="J122" s="2" t="inlineStr"/>
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
@@ -6511,12 +6495,12 @@
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>specified-use</t>
         </is>
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr"/>
@@ -6525,17 +6509,17 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6559,12 +6543,12 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>specified-use</t>
+          <t>existing-gross-floorspace</t>
         </is>
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
@@ -6573,17 +6557,17 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6591,12 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>existing-gross-floorspace</t>
+          <t>floorspace-lost</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr"/>
@@ -6621,7 +6605,7 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
@@ -6655,12 +6639,12 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>floorspace-lost</t>
+          <t>total-gross-proposed</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr"/>
@@ -6669,7 +6653,7 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
@@ -6703,12 +6687,12 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>total-gross-proposed</t>
+          <t>net-additional-floorspace</t>
         </is>
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr"/>
@@ -6717,7 +6701,7 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
@@ -6741,22 +6725,22 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details</t>
+          <t>room-details</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>net-additional-floorspace</t>
+          <t>use-class-accommodation</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -6765,12 +6749,12 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
@@ -6799,12 +6783,12 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>use-class-accommodation</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -6813,17 +6797,17 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N129" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6831,12 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>existing-rooms-lost</t>
         </is>
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -6861,17 +6845,17 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N130" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6895,12 +6879,12 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>existing-rooms-lost</t>
+          <t>total-rooms-proposed</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -6909,7 +6893,7 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
@@ -6943,12 +6927,12 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>total-rooms-proposed</t>
+          <t>net-additional-rooms</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -6957,7 +6941,7 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
@@ -6972,45 +6956,45 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n"/>
-      <c r="B133" s="2" t="n"/>
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>room-details</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>net-additional-rooms</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr"/>
+      <c r="G133" s="2" t="inlineStr"/>
       <c r="H133" s="2" t="inlineStr"/>
       <c r="I133" s="2" t="inlineStr"/>
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N133" s="2" t="inlineStr">
@@ -7020,16 +7004,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A134" s="2" t="n"/>
+      <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -7037,12 +7013,12 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F134" s="2" t="inlineStr"/>
@@ -7053,7 +7029,7 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
@@ -7077,33 +7053,49 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr"/>
-      <c r="H135" s="2" t="inlineStr"/>
-      <c r="I135" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J135" s="2" t="inlineStr"/>
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7137,19 +7129,19 @@
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J136" s="2" t="inlineStr"/>
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
@@ -7159,7 +7151,7 @@
       </c>
       <c r="N136" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7193,19 +7185,19 @@
       </c>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J137" s="2" t="inlineStr"/>
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7249,19 +7241,19 @@
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J138" s="2" t="inlineStr"/>
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7305,19 +7297,19 @@
       </c>
       <c r="H139" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I139" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7327,7 +7319,7 @@
       </c>
       <c r="N139" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7351,34 +7343,26 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H140" s="2" t="inlineStr"/>
+      <c r="I140" s="2" t="inlineStr"/>
       <c r="J140" s="2" t="inlineStr"/>
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N140" s="2" t="inlineStr">
@@ -7397,36 +7381,28 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr"/>
+      <c r="G141" s="2" t="inlineStr"/>
       <c r="H141" s="2" t="inlineStr"/>
       <c r="I141" s="2" t="inlineStr"/>
       <c r="J141" s="2" t="inlineStr"/>
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
@@ -7445,23 +7421,31 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr"/>
-      <c r="G142" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr"/>
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
@@ -7471,7 +7455,7 @@
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7495,12 +7479,12 @@
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr"/>
@@ -7509,12 +7493,12 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
@@ -7533,41 +7517,33 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr"/>
       <c r="H144" s="2" t="inlineStr"/>
       <c r="I144" s="2" t="inlineStr"/>
       <c r="J144" s="2" t="inlineStr"/>
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7557,12 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr"/>
@@ -7597,12 +7573,12 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N145" s="2" t="inlineStr">
@@ -7621,12 +7597,12 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -7637,7 +7613,7 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
@@ -7661,12 +7637,12 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -7677,12 +7653,12 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
@@ -7692,21 +7668,29 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -7717,31 +7701,23 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -7749,12 +7725,12 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr"/>
@@ -7765,17 +7741,17 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7789,12 +7765,12 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F150" s="2" t="inlineStr"/>
@@ -7805,7 +7781,7 @@
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
@@ -7829,12 +7805,12 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr"/>
@@ -7845,7 +7821,7 @@
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
@@ -7869,12 +7845,12 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F152" s="2" t="inlineStr"/>
@@ -7885,7 +7861,7 @@
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
@@ -7900,21 +7876,29 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n"/>
-      <c r="B153" s="2" t="n"/>
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F153" s="2" t="inlineStr"/>
@@ -7925,7 +7909,7 @@
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
@@ -7935,21 +7919,13 @@
       </c>
       <c r="N153" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A154" s="2" t="n"/>
+      <c r="B154" s="2" t="n"/>
       <c r="C154" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -7957,12 +7933,12 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F154" s="2" t="inlineStr"/>
@@ -7973,12 +7949,12 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N154" s="2" t="inlineStr">
@@ -7997,28 +7973,36 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr"/>
-      <c r="G155" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H155" s="2" t="inlineStr"/>
       <c r="I155" s="2" t="inlineStr"/>
       <c r="J155" s="2" t="inlineStr"/>
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
@@ -8047,12 +8031,12 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr"/>
@@ -8061,17 +8045,17 @@
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8095,12 +8079,12 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>total-capacity</t>
         </is>
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr"/>
@@ -8109,12 +8093,12 @@
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N157" s="2" t="inlineStr">
@@ -8143,12 +8127,12 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr"/>
@@ -8157,7 +8141,7 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
@@ -8181,22 +8165,22 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr"/>
@@ -8205,7 +8189,7 @@
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
@@ -8239,12 +8223,12 @@
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr"/>
@@ -8253,7 +8237,7 @@
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
@@ -8287,12 +8271,12 @@
       </c>
       <c r="F161" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr"/>
@@ -8301,7 +8285,7 @@
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
@@ -8335,12 +8319,12 @@
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr"/>
@@ -8349,7 +8333,7 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
@@ -8364,64 +8348,56 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n"/>
-      <c r="B163" s="2" t="n"/>
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr"/>
+      <c r="G163" s="2" t="inlineStr"/>
       <c r="H163" s="2" t="inlineStr"/>
       <c r="I163" s="2" t="inlineStr"/>
       <c r="J163" s="2" t="inlineStr"/>
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N163" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A164" s="2" t="n"/>
+      <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -8429,12 +8405,12 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8445,12 +8421,12 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
@@ -8469,12 +8445,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8485,17 +8461,17 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8509,12 +8485,12 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -8525,17 +8501,17 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8549,12 +8525,12 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr"/>
@@ -8565,17 +8541,17 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8589,12 +8565,12 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>pip-reference</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="F168" s="2" t="inlineStr"/>
@@ -8605,12 +8581,12 @@
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N168" s="2" t="inlineStr">
@@ -8629,12 +8605,12 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>pip-reference</t>
+          <t>is-psi</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
+          <t>Is public service infrastructure</t>
         </is>
       </c>
       <c r="F169" s="2" t="inlineStr"/>
@@ -8645,36 +8621,44 @@
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N169" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n"/>
-      <c r="B170" s="2" t="n"/>
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>is-psi</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr"/>
@@ -8685,7 +8669,7 @@
       <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
@@ -8700,16 +8684,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A171" s="2" t="n"/>
+      <c r="B171" s="2" t="n"/>
       <c r="C171" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -8717,28 +8693,36 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr"/>
-      <c r="G171" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H171" s="2" t="inlineStr"/>
       <c r="I171" s="2" t="inlineStr"/>
       <c r="J171" s="2" t="inlineStr"/>
       <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N171" s="2" t="inlineStr">
@@ -8767,12 +8751,12 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr"/>
@@ -8781,7 +8765,7 @@
       <c r="K172" s="2" t="inlineStr"/>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
@@ -8815,26 +8799,34 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H173" s="2" t="inlineStr"/>
-      <c r="I173" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J173" s="2" t="inlineStr"/>
       <c r="K173" s="2" t="inlineStr"/>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N173" s="2" t="inlineStr">
@@ -8873,19 +8865,27 @@
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J174" s="2" t="inlineStr"/>
-      <c r="K174" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
@@ -8939,27 +8939,27 @@
       </c>
       <c r="J175" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K175" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N175" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9003,17 +9003,17 @@
       </c>
       <c r="J176" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K176" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="N176" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9057,27 +9057,19 @@
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="inlineStr"/>
+      <c r="K177" s="2" t="inlineStr"/>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
@@ -9087,7 +9079,7 @@
       </c>
       <c r="N177" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9111,39 +9103,39 @@
       </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="J178" s="2" t="inlineStr"/>
       <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N178" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9177,19 +9169,27 @@
       </c>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I179" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J179" s="2" t="inlineStr"/>
-      <c r="K179" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr">
@@ -9243,27 +9243,27 @@
       </c>
       <c r="J180" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K180" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M180" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N180" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9307,17 +9307,17 @@
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K181" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M181" s="2" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="N181" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9361,27 +9361,19 @@
       </c>
       <c r="H182" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I182" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="inlineStr"/>
+      <c r="K182" s="2" t="inlineStr"/>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M182" s="2" t="inlineStr">
@@ -9391,7 +9383,7 @@
       </c>
       <c r="N182" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9405,39 +9397,23 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr"/>
+      <c r="G183" s="2" t="inlineStr"/>
+      <c r="H183" s="2" t="inlineStr"/>
+      <c r="I183" s="2" t="inlineStr"/>
       <c r="J183" s="2" t="inlineStr"/>
       <c r="K183" s="2" t="inlineStr"/>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M183" s="2" t="inlineStr">
@@ -9447,7 +9423,7 @@
       </c>
       <c r="N183" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9461,12 +9437,12 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F184" s="2" t="inlineStr"/>
@@ -9477,7 +9453,7 @@
       <c r="K184" s="2" t="inlineStr"/>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M184" s="2" t="inlineStr">
@@ -9501,12 +9477,12 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F185" s="2" t="inlineStr"/>
@@ -9517,7 +9493,7 @@
       <c r="K185" s="2" t="inlineStr"/>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M185" s="2" t="inlineStr">
@@ -9532,21 +9508,29 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n"/>
-      <c r="B186" s="2" t="n"/>
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="F186" s="2" t="inlineStr"/>
@@ -9557,7 +9541,7 @@
       <c r="K186" s="2" t="inlineStr"/>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M186" s="2" t="inlineStr">
@@ -9572,16 +9556,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A187" s="2" t="n"/>
+      <c r="B187" s="2" t="n"/>
       <c r="C187" s="2" t="inlineStr">
         <is>
           <t>How big the site is including relevant measurements</t>
@@ -9589,12 +9565,12 @@
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F187" s="2" t="inlineStr"/>
@@ -9605,52 +9581,68 @@
       <c r="K187" s="2" t="inlineStr"/>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M187" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N187" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n"/>
-      <c r="B188" s="2" t="n"/>
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr"/>
-      <c r="G188" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H188" s="2" t="inlineStr"/>
       <c r="I188" s="2" t="inlineStr"/>
       <c r="J188" s="2" t="inlineStr"/>
       <c r="K188" s="2" t="inlineStr"/>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M188" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N188" s="2" t="inlineStr">
@@ -9660,16 +9652,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A189" s="2" t="n"/>
+      <c r="B189" s="2" t="n"/>
       <c r="C189" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -9687,12 +9671,12 @@
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr"/>
@@ -9701,12 +9685,12 @@
       <c r="K189" s="2" t="inlineStr"/>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M189" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N189" s="2" t="inlineStr">
@@ -9735,12 +9719,12 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr"/>
@@ -9749,7 +9733,7 @@
       <c r="K190" s="2" t="inlineStr"/>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M190" s="2" t="inlineStr">
@@ -9783,12 +9767,12 @@
       </c>
       <c r="F191" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr"/>
@@ -9797,12 +9781,12 @@
       <c r="K191" s="2" t="inlineStr"/>
       <c r="L191" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M191" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N191" s="2" t="inlineStr">
@@ -9831,12 +9815,12 @@
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr"/>
@@ -9845,7 +9829,7 @@
       <c r="K192" s="2" t="inlineStr"/>
       <c r="L192" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M192" s="2" t="inlineStr">
@@ -9879,12 +9863,12 @@
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr"/>
@@ -9893,7 +9877,7 @@
       <c r="K193" s="2" t="inlineStr"/>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M193" s="2" t="inlineStr">
@@ -9927,12 +9911,12 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr"/>
@@ -9941,7 +9925,7 @@
       <c r="K194" s="2" t="inlineStr"/>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M194" s="2" t="inlineStr">
@@ -9975,12 +9959,12 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr"/>
@@ -9989,12 +9973,12 @@
       <c r="K195" s="2" t="inlineStr"/>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M195" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N195" s="2" t="inlineStr">
@@ -10023,12 +10007,12 @@
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr"/>
@@ -10037,7 +10021,7 @@
       <c r="K196" s="2" t="inlineStr"/>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M196" s="2" t="inlineStr">
@@ -10052,64 +10036,56 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n"/>
-      <c r="B197" s="2" t="n"/>
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr"/>
+      <c r="G197" s="2" t="inlineStr"/>
       <c r="H197" s="2" t="inlineStr"/>
       <c r="I197" s="2" t="inlineStr"/>
       <c r="J197" s="2" t="inlineStr"/>
       <c r="K197" s="2" t="inlineStr"/>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M197" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N197" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A198" s="2" t="n"/>
+      <c r="B198" s="2" t="n"/>
       <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -10117,12 +10093,12 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F198" s="2" t="inlineStr"/>
@@ -10133,12 +10109,12 @@
       <c r="K198" s="2" t="inlineStr"/>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M198" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N198" s="2" t="inlineStr">
@@ -10157,12 +10133,12 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F199" s="2" t="inlineStr"/>
@@ -10173,17 +10149,17 @@
       <c r="K199" s="2" t="inlineStr"/>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M199" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N199" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10197,23 +10173,31 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr"/>
-      <c r="G200" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H200" s="2" t="inlineStr"/>
       <c r="I200" s="2" t="inlineStr"/>
       <c r="J200" s="2" t="inlineStr"/>
       <c r="K200" s="2" t="inlineStr"/>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M200" s="2" t="inlineStr">
@@ -10223,7 +10207,7 @@
       </c>
       <c r="N200" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10247,12 +10231,12 @@
       </c>
       <c r="F201" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr"/>
@@ -10261,7 +10245,7 @@
       <c r="K201" s="2" t="inlineStr"/>
       <c r="L201" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M201" s="2" t="inlineStr">
@@ -10295,12 +10279,12 @@
       </c>
       <c r="F202" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr"/>
@@ -10309,7 +10293,7 @@
       <c r="K202" s="2" t="inlineStr"/>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M202" s="2" t="inlineStr">
@@ -10324,45 +10308,45 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n"/>
-      <c r="B203" s="2" t="n"/>
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>trade-effluent</t>
+        </is>
+      </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr"/>
       <c r="H203" s="2" t="inlineStr"/>
       <c r="I203" s="2" t="inlineStr"/>
       <c r="J203" s="2" t="inlineStr"/>
       <c r="K203" s="2" t="inlineStr"/>
       <c r="L203" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M203" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N203" s="2" t="inlineStr">
@@ -10372,16 +10356,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A204" s="2" t="n"/>
+      <c r="B204" s="2" t="n"/>
       <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
@@ -10389,12 +10365,12 @@
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F204" s="2" t="inlineStr"/>
@@ -10405,36 +10381,44 @@
       <c r="K204" s="2" t="inlineStr"/>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M204" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N204" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n"/>
-      <c r="B205" s="2" t="n"/>
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>trees-on-site</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="F205" s="2" t="inlineStr"/>
@@ -10445,31 +10429,23 @@
       <c r="K205" s="2" t="inlineStr"/>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="M205" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N205" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A206" s="2" t="n"/>
+      <c r="B206" s="2" t="n"/>
       <c r="C206" s="2" t="inlineStr">
         <is>
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
@@ -10477,12 +10453,12 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>trees-on-site</t>
+          <t>trees-on-adj-land</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="F206" s="2" t="inlineStr"/>
@@ -10493,7 +10469,7 @@
       <c r="K206" s="2" t="inlineStr"/>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="M206" s="2" t="inlineStr">
@@ -10508,37 +10484,53 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n"/>
-      <c r="B207" s="2" t="n"/>
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>vehicle-parking</t>
+        </is>
+      </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>trees-on-adj-land</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr"/>
-      <c r="G207" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>parking-space-type</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="H207" s="2" t="inlineStr"/>
       <c r="I207" s="2" t="inlineStr"/>
       <c r="J207" s="2" t="inlineStr"/>
       <c r="K207" s="2" t="inlineStr"/>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="M207" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N207" s="2" t="inlineStr">
@@ -10548,16 +10540,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-parking</t>
-        </is>
-      </c>
+      <c r="A208" s="2" t="n"/>
+      <c r="B208" s="2" t="n"/>
       <c r="C208" s="2" t="inlineStr">
         <is>
           <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
@@ -10575,12 +10559,12 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>parking-space-type</t>
+          <t>vehicle-type-other</t>
         </is>
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr"/>
@@ -10589,17 +10573,17 @@
       <c r="K208" s="2" t="inlineStr"/>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M208" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N208" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10623,12 +10607,12 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>vehicle-type-other</t>
+          <t>total-existing</t>
         </is>
       </c>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr"/>
@@ -10637,17 +10621,17 @@
       <c r="K209" s="2" t="inlineStr"/>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M209" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N209" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10671,12 +10655,12 @@
       </c>
       <c r="F210" s="2" t="inlineStr">
         <is>
-          <t>total-existing</t>
+          <t>total-proposed</t>
         </is>
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr"/>
@@ -10685,7 +10669,7 @@
       <c r="K210" s="2" t="inlineStr"/>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M210" s="2" t="inlineStr">
@@ -10719,12 +10703,12 @@
       </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
-          <t>total-proposed</t>
+          <t>difference-in-spaces</t>
         </is>
       </c>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr"/>
@@ -10733,7 +10717,7 @@
       <c r="K211" s="2" t="inlineStr"/>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="M211" s="2" t="inlineStr">
@@ -10748,45 +10732,45 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n"/>
-      <c r="B212" s="2" t="n"/>
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-collection</t>
+        </is>
+      </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>needs-waste-storage-area</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>difference-in-spaces</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Needs waste storage area</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr"/>
+      <c r="G212" s="2" t="inlineStr"/>
       <c r="H212" s="2" t="inlineStr"/>
       <c r="I212" s="2" t="inlineStr"/>
       <c r="J212" s="2" t="inlineStr"/>
       <c r="K212" s="2" t="inlineStr"/>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="M212" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N212" s="2" t="inlineStr">
@@ -10796,16 +10780,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
+      <c r="A213" s="2" t="n"/>
+      <c r="B213" s="2" t="n"/>
       <c r="C213" s="2" t="inlineStr">
         <is>
           <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
@@ -10813,12 +10789,12 @@
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>needs-waste-storage-area</t>
+          <t>waste-storage-area-details</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="F213" s="2" t="inlineStr"/>
@@ -10829,17 +10805,17 @@
       <c r="K213" s="2" t="inlineStr"/>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="M213" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N213" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10853,12 +10829,12 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>waste-storage-area-details</t>
+          <t>separate-recycling-arrangements</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements</t>
         </is>
       </c>
       <c r="F214" s="2" t="inlineStr"/>
@@ -10869,17 +10845,17 @@
       <c r="K214" s="2" t="inlineStr"/>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Does the proposal include separate recycling arrangements</t>
         </is>
       </c>
       <c r="M214" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N214" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10893,12 +10869,12 @@
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>separate-recycling-arrangements</t>
+          <t>separate-recycling-arrangements-details</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="F215" s="2" t="inlineStr"/>
@@ -10909,55 +10885,15 @@
       <c r="K215" s="2" t="inlineStr"/>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="M215" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N215" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n"/>
-      <c r="B216" s="2" t="n"/>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="inlineStr">
-        <is>
-          <t>separate-recycling-arrangements-details</t>
-        </is>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr"/>
-      <c r="G216" s="2" t="inlineStr"/>
-      <c r="H216" s="2" t="inlineStr"/>
-      <c r="I216" s="2" t="inlineStr"/>
-      <c r="J216" s="2" t="inlineStr"/>
-      <c r="K216" s="2" t="inlineStr"/>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="M216" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N216" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -10965,68 +10901,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A189:A197"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A122:A133"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A114:A121"/>
-    <mergeCell ref="B52:B66"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B134:B148"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B154:B163"/>
-    <mergeCell ref="B171:B186"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A67"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B122:B133"/>
-    <mergeCell ref="B81:B90"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A171:A186"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B189:B197"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="A134:A148"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B208:B212"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="A154:A163"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A52:A66"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="A121:A132"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A163:A169"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="B207:B211"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B121:B132"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="A133:A147"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A153:A162"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B163:B169"/>
+    <mergeCell ref="A170:A185"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B188:B196"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A113:A120"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="B133:B147"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B51:B65"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B170:B185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="B113:B120"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="B80:B89"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="B148:B152"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:N211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,83 +1441,99 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -1525,12 +1541,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
@@ -1541,7 +1557,7 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1565,12 +1581,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>change-right-of-way</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1581,7 +1597,7 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1605,12 +1621,12 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>new-right-of-way</t>
+          <t>change-right-of-way</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
@@ -1621,7 +1637,7 @@
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1645,12 +1661,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>new-public-road</t>
+          <t>new-right-of-way</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
@@ -1661,7 +1677,7 @@
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1685,36 +1701,28 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>new-public-road</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>New public road</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -1743,12 +1751,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr"/>
@@ -1757,7 +1765,7 @@
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -3788,48 +3796,40 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>bng-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3846,27 +3846,27 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3877,12 +3877,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3892,16 +3892,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3909,12 +3901,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3925,17 +3917,17 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3941,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3965,7 +3957,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3980,21 +3972,29 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -4005,7 +4005,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4015,21 +4015,13 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -4037,12 +4029,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -4053,12 +4045,12 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4077,12 +4069,12 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4093,12 +4085,12 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4108,37 +4100,53 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4148,16 +4156,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -4175,12 +4175,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4189,7 +4189,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4237,7 +4237,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4261,22 +4261,22 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4285,7 +4285,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4319,12 +4319,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4333,7 +4333,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4381,7 +4381,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4405,95 +4405,95 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>total-fte</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
       <c r="H78" s="2" t="inlineStr"/>
       <c r="I78" s="2" t="inlineStr"/>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr"/>
-      <c r="G79" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -4511,12 +4511,12 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr"/>
@@ -4525,17 +4525,17 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr"/>
@@ -4573,7 +4573,7 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4597,36 +4597,28 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
@@ -4645,12 +4637,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4661,17 +4653,17 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4677,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4701,12 +4693,12 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
@@ -4725,12 +4717,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4741,17 +4733,17 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4757,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4781,7 +4773,7 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
@@ -4805,12 +4797,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4821,7 +4813,7 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
@@ -4845,12 +4837,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4861,36 +4853,44 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4901,31 +4901,23 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -4933,12 +4925,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
@@ -4949,17 +4941,17 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4973,12 +4965,12 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
@@ -4989,12 +4981,12 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
@@ -5013,12 +5005,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -5029,17 +5021,17 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5045,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5069,7 +5061,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5093,12 +5085,12 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
@@ -5109,12 +5101,12 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
@@ -5124,21 +5116,29 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="2" t="n"/>
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
@@ -5149,12 +5149,12 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
@@ -5164,16 +5164,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -5181,12 +5173,12 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
@@ -5197,17 +5189,17 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5213,12 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
@@ -5237,17 +5229,17 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5261,12 +5253,12 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>drainage-system-details</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
@@ -5277,36 +5269,44 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>involves-hazardous-substances</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
@@ -5317,55 +5317,55 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>involves-hazardous-substances</t>
+          <t>substance-types</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>hazardous-substance-type</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="H100" s="2" t="inlineStr"/>
       <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
@@ -5384,7 +5384,7 @@
       <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
@@ -5399,12 +5399,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-type</t>
+          <t>hazardous-substance-other</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5413,17 +5413,17 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
       <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-other</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5461,46 +5461,54 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Hours of operation[]</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>use</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5509,12 +5517,12 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
@@ -5528,38 +5536,46 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr"/>
-      <c r="G104" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>use-other</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>Use other</t>
+        </is>
+      </c>
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5568,52 +5584,60 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-details</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr"/>
-      <c r="G105" s="2" t="inlineStr"/>
-      <c r="H105" s="2" t="inlineStr"/>
-      <c r="I105" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>operational-times</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -5631,31 +5655,39 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
-        </is>
-      </c>
-      <c r="H106" s="2" t="inlineStr"/>
-      <c r="I106" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
       <c r="J106" s="2" t="inlineStr"/>
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5679,21 +5711,37 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H107" s="2" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr"/>
-      <c r="J107" s="2" t="inlineStr"/>
-      <c r="K107" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>time-ranges</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
@@ -5703,7 +5751,7 @@
       </c>
       <c r="N107" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5737,24 +5785,32 @@
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
-        </is>
-      </c>
-      <c r="J108" s="2" t="inlineStr"/>
-      <c r="K108" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>close-time</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="inlineStr">
+        <is>
+          <t>Close time</t>
+        </is>
+      </c>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
@@ -5783,29 +5839,21 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr"/>
       <c r="J109" s="2" t="inlineStr"/>
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5820,61 +5868,53 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>building-element-type</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>open-time</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="inlineStr">
-        <is>
-          <t>Open time</t>
-        </is>
-      </c>
+          <t>Building element type</t>
+        </is>
+      </c>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr"/>
+      <c r="J110" s="2" t="inlineStr"/>
+      <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
@@ -5888,52 +5928,36 @@
       <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Existing materials</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr"/>
+      <c r="I111" s="2" t="inlineStr"/>
+      <c r="J111" s="2" t="inlineStr"/>
+      <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5943,7 +5967,7 @@
       </c>
       <c r="N111" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5952,27 +5976,27 @@
       <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>hours-not-known</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Hours not known</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr"/>
@@ -5981,12 +6005,12 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
@@ -5996,16 +6020,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -6023,12 +6039,12 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr"/>
@@ -6037,17 +6053,17 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N113" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6071,12 +6087,12 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr"/>
@@ -6085,12 +6101,12 @@
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
@@ -6109,41 +6125,33 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>proposed-materials</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="inlineStr">
-        <is>
-          <t>Proposed materials</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr"/>
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N115" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6157,22 +6165,22 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
+          <t>Supporting documents[]</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
@@ -6181,55 +6189,55 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N116" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n"/>
-      <c r="B117" s="2" t="n"/>
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>non-residential-change</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr"/>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr"/>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6239,7 +6247,7 @@
       </c>
       <c r="N117" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6248,33 +6256,41 @@
       <c r="B118" s="2" t="n"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>floorspace-details</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N118" s="2" t="inlineStr">
@@ -6288,27 +6304,27 @@
       <c r="B119" s="2" t="n"/>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>floorspace-details</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
+          <t>Floorspace details[]</t>
         </is>
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>specified-use</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr"/>
@@ -6317,7 +6333,7 @@
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6327,7 +6343,7 @@
       </c>
       <c r="N119" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6336,27 +6352,27 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>floorspace-details</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
+          <t>Floorspace details[]</t>
         </is>
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>existing-gross-floorspace</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
@@ -6365,12 +6381,12 @@
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N120" s="2" t="inlineStr">
@@ -6380,16 +6396,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>non-res-floorspace</t>
-        </is>
-      </c>
+      <c r="A121" s="2" t="n"/>
+      <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
           <t>Details of changes to non-residential floorspace in the proposed development.</t>
@@ -6397,28 +6405,36 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>non-residential-change</t>
+          <t>floorspace-details</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr"/>
-      <c r="G121" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>floorspace-lost</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>Floorspace lost</t>
+        </is>
+      </c>
       <c r="H121" s="2" t="inlineStr"/>
       <c r="I121" s="2" t="inlineStr"/>
       <c r="J121" s="2" t="inlineStr"/>
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N121" s="2" t="inlineStr">
@@ -6447,12 +6463,12 @@
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>total-gross-proposed</t>
         </is>
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr"/>
@@ -6461,12 +6477,12 @@
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
@@ -6495,12 +6511,12 @@
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>specified-use</t>
+          <t>net-additional-floorspace</t>
         </is>
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr"/>
@@ -6509,17 +6525,17 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6533,22 +6549,22 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details</t>
+          <t>room-details</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>existing-gross-floorspace</t>
+          <t>use-class-accommodation</t>
         </is>
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
@@ -6557,12 +6573,12 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
@@ -6581,22 +6597,22 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details</t>
+          <t>room-details</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>floorspace-lost</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr"/>
@@ -6605,17 +6621,17 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N125" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6629,22 +6645,22 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details</t>
+          <t>room-details</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>total-gross-proposed</t>
+          <t>existing-rooms-lost</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr"/>
@@ -6653,7 +6669,7 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
@@ -6677,22 +6693,22 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details</t>
+          <t>room-details</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>net-additional-floorspace</t>
+          <t>total-rooms-proposed</t>
         </is>
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr"/>
@@ -6701,7 +6717,7 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
@@ -6735,12 +6751,12 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>use-class-accommodation</t>
+          <t>net-additional-rooms</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -6749,12 +6765,12 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
@@ -6764,50 +6780,50 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n"/>
-      <c r="B129" s="2" t="n"/>
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>room-details</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>use-other</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="inlineStr">
-        <is>
-          <t>Use other</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr"/>
       <c r="H129" s="2" t="inlineStr"/>
       <c r="I129" s="2" t="inlineStr"/>
       <c r="J129" s="2" t="inlineStr"/>
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N129" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6816,41 +6832,33 @@
       <c r="B130" s="2" t="n"/>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>room-details</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>existing-rooms-lost</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="inlineStr">
-        <is>
-          <t>Existing rooms lost</t>
-        </is>
-      </c>
+          <t>Agricultural tenants</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr"/>
       <c r="H130" s="2" t="inlineStr"/>
       <c r="I130" s="2" t="inlineStr"/>
       <c r="J130" s="2" t="inlineStr"/>
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N130" s="2" t="inlineStr">
@@ -6864,46 +6872,54 @@
       <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>room-details</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
+          <t>Owners and tenants[]</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>total-rooms-proposed</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
-        </is>
-      </c>
-      <c r="H131" s="2" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J131" s="2" t="inlineStr"/>
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N131" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6912,41 +6928,49 @@
       <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>room-details</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
+          <t>Owners and tenants[]</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>net-additional-rooms</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
-      <c r="H132" s="2" t="inlineStr"/>
-      <c r="I132" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>first-name</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
       <c r="J132" s="2" t="inlineStr"/>
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N132" s="2" t="inlineStr">
@@ -6956,16 +6980,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A133" s="2" t="n"/>
+      <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -6973,28 +6989,44 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr"/>
-      <c r="H133" s="2" t="inlineStr"/>
-      <c r="I133" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>last-name</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N133" s="2" t="inlineStr">
@@ -7013,28 +7045,44 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="inlineStr"/>
-      <c r="H134" s="2" t="inlineStr"/>
-      <c r="I134" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>address-text</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="J134" s="2" t="inlineStr"/>
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
@@ -7073,19 +7121,19 @@
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J135" s="2" t="inlineStr"/>
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
@@ -7119,39 +7167,31 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>first-name</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H136" s="2" t="inlineStr"/>
+      <c r="I136" s="2" t="inlineStr"/>
       <c r="J136" s="2" t="inlineStr"/>
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7165,39 +7205,23 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>last-name</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr"/>
+      <c r="H137" s="2" t="inlineStr"/>
+      <c r="I137" s="2" t="inlineStr"/>
       <c r="J137" s="2" t="inlineStr"/>
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7207,7 +7231,7 @@
       </c>
       <c r="N137" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7221,39 +7245,31 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
+          <t>Newspaper notices[]</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>newspaper-name</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Newspaper name</t>
+        </is>
+      </c>
+      <c r="H138" s="2" t="inlineStr"/>
+      <c r="I138" s="2" t="inlineStr"/>
       <c r="J138" s="2" t="inlineStr"/>
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7277,49 +7293,41 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
+          <t>Newspaper notices[]</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Publication date</t>
+        </is>
+      </c>
+      <c r="H139" s="2" t="inlineStr"/>
+      <c r="I139" s="2" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N139" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7333,36 +7341,28 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr"/>
+      <c r="G140" s="2" t="inlineStr"/>
       <c r="H140" s="2" t="inlineStr"/>
       <c r="I140" s="2" t="inlineStr"/>
       <c r="J140" s="2" t="inlineStr"/>
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N140" s="2" t="inlineStr">
@@ -7381,12 +7381,12 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr"/>
@@ -7397,7 +7397,7 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
@@ -7421,31 +7421,23 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>newspaper-name</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="inlineStr">
-        <is>
-          <t>Newspaper name</t>
-        </is>
-      </c>
+          <t>Agent signature</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr"/>
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
@@ -7455,7 +7447,7 @@
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7469,31 +7461,23 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Signature date</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr"/>
       <c r="H143" s="2" t="inlineStr"/>
       <c r="I143" s="2" t="inlineStr"/>
       <c r="J143" s="2" t="inlineStr"/>
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
@@ -7503,26 +7487,34 @@
       </c>
       <c r="N143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n"/>
-      <c r="B144" s="2" t="n"/>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
@@ -7533,17 +7525,17 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7552,17 +7544,17 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr"/>
@@ -7573,7 +7565,7 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
@@ -7592,17 +7584,17 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -7613,7 +7605,7 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
@@ -7632,17 +7624,17 @@
       <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -7653,12 +7645,12 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
@@ -7668,16 +7660,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A148" s="2" t="n"/>
+      <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -7685,12 +7669,12 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -7701,36 +7685,44 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr"/>
@@ -7741,7 +7733,7 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
@@ -7751,7 +7743,7 @@
       </c>
       <c r="N149" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7760,17 +7752,17 @@
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F150" s="2" t="inlineStr"/>
@@ -7781,17 +7773,17 @@
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N150" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7800,38 +7792,46 @@
       <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H151" s="2" t="inlineStr"/>
       <c r="I151" s="2" t="inlineStr"/>
       <c r="J151" s="2" t="inlineStr"/>
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7840,33 +7840,41 @@
       <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>not-applicable</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="H152" s="2" t="inlineStr"/>
       <c r="I152" s="2" t="inlineStr"/>
       <c r="J152" s="2" t="inlineStr"/>
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
@@ -7876,16 +7884,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A153" s="2" t="n"/>
+      <c r="B153" s="2" t="n"/>
       <c r="C153" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -7893,33 +7893,41 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr"/>
-      <c r="G153" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>total-capacity</t>
+        </is>
+      </c>
+      <c r="G153" s="2" t="inlineStr">
+        <is>
+          <t>Total capacity</t>
+        </is>
+      </c>
       <c r="H153" s="2" t="inlineStr"/>
       <c r="I153" s="2" t="inlineStr"/>
       <c r="J153" s="2" t="inlineStr"/>
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N153" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7933,33 +7941,41 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="inlineStr"/>
-      <c r="G154" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>annual-throughput</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="inlineStr">
+        <is>
+          <t>Annual throughput</t>
+        </is>
+      </c>
       <c r="H154" s="2" t="inlineStr"/>
       <c r="I154" s="2" t="inlineStr"/>
       <c r="J154" s="2" t="inlineStr"/>
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N154" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7973,22 +7989,22 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -7997,17 +8013,17 @@
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8021,22 +8037,22 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr"/>
@@ -8045,12 +8061,12 @@
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
@@ -8069,22 +8085,22 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr"/>
@@ -8093,7 +8109,7 @@
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
@@ -8117,22 +8133,22 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr"/>
@@ -8141,7 +8157,7 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
@@ -8156,50 +8172,50 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n"/>
-      <c r="B159" s="2" t="n"/>
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>municipal</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr"/>
+      <c r="G159" s="2" t="inlineStr"/>
       <c r="H159" s="2" t="inlineStr"/>
       <c r="I159" s="2" t="inlineStr"/>
       <c r="J159" s="2" t="inlineStr"/>
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8208,46 +8224,38 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>construction-demolition</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="inlineStr">
-        <is>
-          <t>Construction demolition</t>
-        </is>
-      </c>
+          <t>Proposal started</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr"/>
+      <c r="G160" s="2" t="inlineStr"/>
       <c r="H160" s="2" t="inlineStr"/>
       <c r="I160" s="2" t="inlineStr"/>
       <c r="J160" s="2" t="inlineStr"/>
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8256,41 +8264,33 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>commercial-industrial</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="inlineStr">
-        <is>
-          <t>Commercial industrial</t>
-        </is>
-      </c>
+          <t>Proposal start date</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr"/>
+      <c r="G161" s="2" t="inlineStr"/>
       <c r="H161" s="2" t="inlineStr"/>
       <c r="I161" s="2" t="inlineStr"/>
       <c r="J161" s="2" t="inlineStr"/>
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N161" s="2" t="inlineStr">
@@ -8304,60 +8304,44 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal completed</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr"/>
+      <c r="G162" s="2" t="inlineStr"/>
       <c r="H162" s="2" t="inlineStr"/>
       <c r="I162" s="2" t="inlineStr"/>
       <c r="J162" s="2" t="inlineStr"/>
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N162" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A163" s="2" t="n"/>
+      <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -8365,12 +8349,12 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8381,17 +8365,17 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N163" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8405,12 +8389,12 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>pip-reference</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8421,17 +8405,17 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8445,12 +8429,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>is-psi</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Is public service infrastructure</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8461,36 +8445,44 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n"/>
-      <c r="B166" s="2" t="n"/>
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -8501,7 +8493,7 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
@@ -8520,38 +8512,46 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr"/>
-      <c r="G167" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G167" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H167" s="2" t="inlineStr"/>
       <c r="I167" s="2" t="inlineStr"/>
       <c r="J167" s="2" t="inlineStr"/>
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8560,38 +8560,46 @@
       <c r="B168" s="2" t="n"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>pip-reference</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr"/>
-      <c r="G168" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>housing-type</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="inlineStr">
+        <is>
+          <t>Housing type</t>
+        </is>
+      </c>
       <c r="H168" s="2" t="inlineStr"/>
       <c r="I168" s="2" t="inlineStr"/>
       <c r="J168" s="2" t="inlineStr"/>
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N168" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8600,28 +8608,44 @@
       <c r="B169" s="2" t="n"/>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>is-psi</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
-        </is>
-      </c>
-      <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr"/>
-      <c r="H169" s="2" t="inlineStr"/>
-      <c r="I169" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>existing-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="inlineStr">
+        <is>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J169" s="2" t="inlineStr"/>
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
@@ -8636,16 +8660,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A170" s="2" t="n"/>
+      <c r="B170" s="2" t="n"/>
       <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -8653,23 +8669,47 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr"/>
-      <c r="H170" s="2" t="inlineStr"/>
-      <c r="I170" s="2" t="inlineStr"/>
-      <c r="J170" s="2" t="inlineStr"/>
-      <c r="K170" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>existing-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>units-per-bedroom-no</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
@@ -8703,31 +8743,47 @@
       </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
-      <c r="H171" s="2" t="inlineStr"/>
-      <c r="I171" s="2" t="inlineStr"/>
-      <c r="J171" s="2" t="inlineStr"/>
-      <c r="K171" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>units-per-bedroom-no</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>no-of-bedrooms</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N171" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8751,26 +8807,42 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H172" s="2" t="inlineStr"/>
-      <c r="I172" s="2" t="inlineStr"/>
-      <c r="J172" s="2" t="inlineStr"/>
-      <c r="K172" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>units-per-bedroom-no</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N172" s="2" t="inlineStr">
@@ -8809,29 +8881,29 @@
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
+          <t>Total units</t>
         </is>
       </c>
       <c r="J173" s="2" t="inlineStr"/>
       <c r="K173" s="2" t="inlineStr"/>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N173" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8855,37 +8927,29 @@
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>no-bedrooms-unknown</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr"/>
+      <c r="K174" s="2" t="inlineStr"/>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
@@ -8919,12 +8983,12 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
@@ -8939,27 +9003,27 @@
       </c>
       <c r="J175" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>no-bedrooms-unknown</t>
         </is>
       </c>
       <c r="K175" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N175" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8983,12 +9047,12 @@
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -9003,17 +9067,17 @@
       </c>
       <c r="J176" s="2" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K176" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
@@ -9023,7 +9087,7 @@
       </c>
       <c r="N176" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9047,29 +9111,37 @@
       </c>
       <c r="F177" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="J177" s="2" t="inlineStr"/>
-      <c r="K177" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
@@ -9079,7 +9151,7 @@
       </c>
       <c r="N177" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9113,29 +9185,29 @@
       </c>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
+          <t>Total units</t>
         </is>
       </c>
       <c r="J178" s="2" t="inlineStr"/>
       <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N178" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9149,52 +9221,28 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>units-per-bedroom-no</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>no-bedrooms-unknown</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr"/>
+      <c r="G179" s="2" t="inlineStr"/>
+      <c r="H179" s="2" t="inlineStr"/>
+      <c r="I179" s="2" t="inlineStr"/>
+      <c r="J179" s="2" t="inlineStr"/>
+      <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N179" s="2" t="inlineStr">
@@ -9213,47 +9261,23 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>units-per-bedroom-no</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>no-of-bedrooms</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Total proposed units</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr"/>
+      <c r="H180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr"/>
+      <c r="J180" s="2" t="inlineStr"/>
+      <c r="K180" s="2" t="inlineStr"/>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M180" s="2" t="inlineStr">
@@ -9263,7 +9287,7 @@
       </c>
       <c r="N180" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9277,47 +9301,23 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>units-per-bedroom-no</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Net change</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr"/>
+      <c r="H181" s="2" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr"/>
+      <c r="J181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr"/>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M181" s="2" t="inlineStr">
@@ -9332,48 +9332,40 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n"/>
-      <c r="B182" s="2" t="n"/>
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr"/>
+      <c r="G182" s="2" t="inlineStr"/>
+      <c r="H182" s="2" t="inlineStr"/>
+      <c r="I182" s="2" t="inlineStr"/>
       <c r="J182" s="2" t="inlineStr"/>
       <c r="K182" s="2" t="inlineStr"/>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M182" s="2" t="inlineStr">
@@ -9383,7 +9375,7 @@
       </c>
       <c r="N182" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9392,17 +9384,17 @@
       <c r="B183" s="2" t="n"/>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F183" s="2" t="inlineStr"/>
@@ -9413,57 +9405,73 @@
       <c r="K183" s="2" t="inlineStr"/>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M183" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N183" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n"/>
-      <c r="B184" s="2" t="n"/>
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr"/>
-      <c r="G184" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H184" s="2" t="inlineStr"/>
       <c r="I184" s="2" t="inlineStr"/>
       <c r="J184" s="2" t="inlineStr"/>
       <c r="K184" s="2" t="inlineStr"/>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M184" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N184" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9472,86 +9480,94 @@
       <c r="B185" s="2" t="n"/>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr"/>
-      <c r="G185" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>address-text</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="H185" s="2" t="inlineStr"/>
       <c r="I185" s="2" t="inlineStr"/>
       <c r="J185" s="2" t="inlineStr"/>
       <c r="K185" s="2" t="inlineStr"/>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M185" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N185" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A186" s="2" t="n"/>
+      <c r="B186" s="2" t="n"/>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr"/>
-      <c r="G186" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="H186" s="2" t="inlineStr"/>
       <c r="I186" s="2" t="inlineStr"/>
       <c r="J186" s="2" t="inlineStr"/>
       <c r="K186" s="2" t="inlineStr"/>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M186" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N186" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9560,33 +9576,41 @@
       <c r="B187" s="2" t="n"/>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr"/>
-      <c r="G187" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>easting</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
       <c r="H187" s="2" t="inlineStr"/>
       <c r="I187" s="2" t="inlineStr"/>
       <c r="J187" s="2" t="inlineStr"/>
       <c r="K187" s="2" t="inlineStr"/>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M187" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N187" s="2" t="inlineStr">
@@ -9596,16 +9620,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A188" s="2" t="n"/>
+      <c r="B188" s="2" t="n"/>
       <c r="C188" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -9623,12 +9639,12 @@
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr"/>
@@ -9637,12 +9653,12 @@
       <c r="K188" s="2" t="inlineStr"/>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M188" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N188" s="2" t="inlineStr">
@@ -9671,12 +9687,12 @@
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr"/>
@@ -9685,12 +9701,12 @@
       <c r="K189" s="2" t="inlineStr"/>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M189" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N189" s="2" t="inlineStr">
@@ -9719,12 +9735,12 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr"/>
@@ -9733,12 +9749,12 @@
       <c r="K190" s="2" t="inlineStr"/>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M190" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N190" s="2" t="inlineStr">
@@ -9767,12 +9783,12 @@
       </c>
       <c r="F191" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr"/>
@@ -9781,12 +9797,12 @@
       <c r="K191" s="2" t="inlineStr"/>
       <c r="L191" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M191" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N191" s="2" t="inlineStr">
@@ -9815,12 +9831,12 @@
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr"/>
@@ -9829,12 +9845,12 @@
       <c r="K192" s="2" t="inlineStr"/>
       <c r="L192" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M192" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N192" s="2" t="inlineStr">
@@ -9844,50 +9860,50 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n"/>
-      <c r="B193" s="2" t="n"/>
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F193" s="2" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="G193" s="2" t="inlineStr">
-        <is>
-          <t>Latitude</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr"/>
+      <c r="G193" s="2" t="inlineStr"/>
       <c r="H193" s="2" t="inlineStr"/>
       <c r="I193" s="2" t="inlineStr"/>
       <c r="J193" s="2" t="inlineStr"/>
       <c r="K193" s="2" t="inlineStr"/>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M193" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N193" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9896,46 +9912,38 @@
       <c r="B194" s="2" t="n"/>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="inlineStr">
-        <is>
-          <t>Longitude</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr"/>
       <c r="H194" s="2" t="inlineStr"/>
       <c r="I194" s="2" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr"/>
       <c r="K194" s="2" t="inlineStr"/>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M194" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N194" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9944,36 +9952,28 @@
       <c r="B195" s="2" t="n"/>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr"/>
       <c r="H195" s="2" t="inlineStr"/>
       <c r="I195" s="2" t="inlineStr"/>
       <c r="J195" s="2" t="inlineStr"/>
       <c r="K195" s="2" t="inlineStr"/>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M195" s="2" t="inlineStr">
@@ -9992,27 +9992,27 @@
       <c r="B196" s="2" t="n"/>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
       <c r="K196" s="2" t="inlineStr"/>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M196" s="2" t="inlineStr">
@@ -10031,21 +10031,13 @@
       </c>
       <c r="N196" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A197" s="2" t="n"/>
+      <c r="B197" s="2" t="n"/>
       <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -10053,28 +10045,36 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr"/>
-      <c r="G197" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="H197" s="2" t="inlineStr"/>
       <c r="I197" s="2" t="inlineStr"/>
       <c r="J197" s="2" t="inlineStr"/>
       <c r="K197" s="2" t="inlineStr"/>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M197" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N197" s="2" t="inlineStr">
@@ -10093,28 +10093,36 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="F198" s="2" t="inlineStr"/>
-      <c r="G198" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H198" s="2" t="inlineStr"/>
       <c r="I198" s="2" t="inlineStr"/>
       <c r="J198" s="2" t="inlineStr"/>
       <c r="K198" s="2" t="inlineStr"/>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M198" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N198" s="2" t="inlineStr">
@@ -10124,21 +10132,29 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n"/>
-      <c r="B199" s="2" t="n"/>
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>trade-effluent</t>
+        </is>
+      </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="F199" s="2" t="inlineStr"/>
@@ -10149,17 +10165,17 @@
       <c r="K199" s="2" t="inlineStr"/>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M199" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N199" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10168,36 +10184,28 @@
       <c r="B200" s="2" t="n"/>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr"/>
+      <c r="G200" s="2" t="inlineStr"/>
       <c r="H200" s="2" t="inlineStr"/>
       <c r="I200" s="2" t="inlineStr"/>
       <c r="J200" s="2" t="inlineStr"/>
       <c r="K200" s="2" t="inlineStr"/>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M200" s="2" t="inlineStr">
@@ -10207,50 +10215,50 @@
       </c>
       <c r="N200" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n"/>
-      <c r="B201" s="2" t="n"/>
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>trees-on-site</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Trees on site</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr"/>
+      <c r="G201" s="2" t="inlineStr"/>
       <c r="H201" s="2" t="inlineStr"/>
       <c r="I201" s="2" t="inlineStr"/>
       <c r="J201" s="2" t="inlineStr"/>
       <c r="K201" s="2" t="inlineStr"/>
       <c r="L201" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="M201" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N201" s="2" t="inlineStr">
@@ -10264,41 +10272,33 @@
       <c r="B202" s="2" t="n"/>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>trees-on-adj-land</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Trees on adjacent land</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr"/>
+      <c r="G202" s="2" t="inlineStr"/>
       <c r="H202" s="2" t="inlineStr"/>
       <c r="I202" s="2" t="inlineStr"/>
       <c r="J202" s="2" t="inlineStr"/>
       <c r="K202" s="2" t="inlineStr"/>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="M202" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N202" s="2" t="inlineStr">
@@ -10310,43 +10310,51 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>Trade effluent</t>
+          <t>Vehicle parking</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>trade-effluent</t>
+          <t>vehicle-parking</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr"/>
-      <c r="G203" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>parking-space-type</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="H203" s="2" t="inlineStr"/>
       <c r="I203" s="2" t="inlineStr"/>
       <c r="J203" s="2" t="inlineStr"/>
       <c r="K203" s="2" t="inlineStr"/>
       <c r="L203" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="M203" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N203" s="2" t="inlineStr">
@@ -10360,28 +10368,36 @@
       <c r="B204" s="2" t="n"/>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr"/>
-      <c r="G204" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>vehicle-type-other</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle type other</t>
+        </is>
+      </c>
       <c r="H204" s="2" t="inlineStr"/>
       <c r="I204" s="2" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr"/>
       <c r="K204" s="2" t="inlineStr"/>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M204" s="2" t="inlineStr">
@@ -10396,45 +10412,45 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A205" s="2" t="n"/>
+      <c r="B205" s="2" t="n"/>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>trees-on-site</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr"/>
-      <c r="G205" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>total-existing</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>Total existing</t>
+        </is>
+      </c>
       <c r="H205" s="2" t="inlineStr"/>
       <c r="I205" s="2" t="inlineStr"/>
       <c r="J205" s="2" t="inlineStr"/>
       <c r="K205" s="2" t="inlineStr"/>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M205" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N205" s="2" t="inlineStr">
@@ -10448,33 +10464,41 @@
       <c r="B206" s="2" t="n"/>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>trees-on-adj-land</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr"/>
-      <c r="G206" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>total-proposed</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>Total proposed</t>
+        </is>
+      </c>
       <c r="H206" s="2" t="inlineStr"/>
       <c r="I206" s="2" t="inlineStr"/>
       <c r="J206" s="2" t="inlineStr"/>
       <c r="K206" s="2" t="inlineStr"/>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M206" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N206" s="2" t="inlineStr">
@@ -10484,16 +10508,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-parking</t>
-        </is>
-      </c>
+      <c r="A207" s="2" t="n"/>
+      <c r="B207" s="2" t="n"/>
       <c r="C207" s="2" t="inlineStr">
         <is>
           <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
@@ -10511,12 +10527,12 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>parking-space-type</t>
+          <t>difference-in-spaces</t>
         </is>
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr"/>
@@ -10525,12 +10541,12 @@
       <c r="K207" s="2" t="inlineStr"/>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="M207" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N207" s="2" t="inlineStr">
@@ -10540,50 +10556,50 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n"/>
-      <c r="B208" s="2" t="n"/>
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-collection</t>
+        </is>
+      </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>needs-waste-storage-area</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-type-other</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type other</t>
-        </is>
-      </c>
+          <t>Needs waste storage area</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr"/>
+      <c r="G208" s="2" t="inlineStr"/>
       <c r="H208" s="2" t="inlineStr"/>
       <c r="I208" s="2" t="inlineStr"/>
       <c r="J208" s="2" t="inlineStr"/>
       <c r="K208" s="2" t="inlineStr"/>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="M208" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N208" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10592,46 +10608,38 @@
       <c r="B209" s="2" t="n"/>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>waste-storage-area-details</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>total-existing</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="inlineStr">
-        <is>
-          <t>Total existing</t>
-        </is>
-      </c>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr"/>
+      <c r="G209" s="2" t="inlineStr"/>
       <c r="H209" s="2" t="inlineStr"/>
       <c r="I209" s="2" t="inlineStr"/>
       <c r="J209" s="2" t="inlineStr"/>
       <c r="K209" s="2" t="inlineStr"/>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="M209" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N209" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10640,41 +10648,33 @@
       <c r="B210" s="2" t="n"/>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>separate-recycling-arrangements</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>total-proposed</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="inlineStr">
-        <is>
-          <t>Total proposed</t>
-        </is>
-      </c>
+          <t>Separate recycling arrangements</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr"/>
+      <c r="G210" s="2" t="inlineStr"/>
       <c r="H210" s="2" t="inlineStr"/>
       <c r="I210" s="2" t="inlineStr"/>
       <c r="J210" s="2" t="inlineStr"/>
       <c r="K210" s="2" t="inlineStr"/>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Does the proposal include separate recycling arrangements</t>
         </is>
       </c>
       <c r="M210" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N210" s="2" t="inlineStr">
@@ -10688,212 +10688,36 @@
       <c r="B211" s="2" t="n"/>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>separate-recycling-arrangements-details</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>difference-in-spaces</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr"/>
+      <c r="G211" s="2" t="inlineStr"/>
       <c r="H211" s="2" t="inlineStr"/>
       <c r="I211" s="2" t="inlineStr"/>
       <c r="J211" s="2" t="inlineStr"/>
       <c r="K211" s="2" t="inlineStr"/>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="M211" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N211" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>needs-waste-storage-area</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>Needs waste storage area</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr"/>
-      <c r="G212" s="2" t="inlineStr"/>
-      <c r="H212" s="2" t="inlineStr"/>
-      <c r="I212" s="2" t="inlineStr"/>
-      <c r="J212" s="2" t="inlineStr"/>
-      <c r="K212" s="2" t="inlineStr"/>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Does the proposal require a waste storage area</t>
-        </is>
-      </c>
-      <c r="M212" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="N212" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="n"/>
-      <c r="B213" s="2" t="n"/>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-area-details</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage area details</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr"/>
-      <c r="G213" s="2" t="inlineStr"/>
-      <c r="H213" s="2" t="inlineStr"/>
-      <c r="I213" s="2" t="inlineStr"/>
-      <c r="J213" s="2" t="inlineStr"/>
-      <c r="K213" s="2" t="inlineStr"/>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
-        </is>
-      </c>
-      <c r="M213" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N213" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="n"/>
-      <c r="B214" s="2" t="n"/>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>separate-recycling-arrangements</t>
-        </is>
-      </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr"/>
-      <c r="G214" s="2" t="inlineStr"/>
-      <c r="H214" s="2" t="inlineStr"/>
-      <c r="I214" s="2" t="inlineStr"/>
-      <c r="J214" s="2" t="inlineStr"/>
-      <c r="K214" s="2" t="inlineStr"/>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Does the proposal include separate recycling arrangements</t>
-        </is>
-      </c>
-      <c r="M214" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="N214" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n"/>
-      <c r="B215" s="2" t="n"/>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr">
-        <is>
-          <t>separate-recycling-arrangements-details</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr"/>
-      <c r="G215" s="2" t="inlineStr"/>
-      <c r="H215" s="2" t="inlineStr"/>
-      <c r="I215" s="2" t="inlineStr"/>
-      <c r="J215" s="2" t="inlineStr"/>
-      <c r="K215" s="2" t="inlineStr"/>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="M215" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N215" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -10901,68 +10725,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A51:A65"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="A121:A132"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B65"/>
+    <mergeCell ref="B193:B198"/>
+    <mergeCell ref="B103:B109"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A208:A211"/>
     <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A163:A169"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="B207:B211"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="B51:B64"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A184:A192"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A117:A128"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B121:B132"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="A95:A98"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="A133:A147"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A153:A162"/>
+    <mergeCell ref="A193:A198"/>
+    <mergeCell ref="A129:A143"/>
+    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="A89:A94"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B163:B169"/>
-    <mergeCell ref="A170:A185"/>
-    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="B144:B148"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B188:B196"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A113:A120"/>
-    <mergeCell ref="A207:A211"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="A66"/>
-    <mergeCell ref="B133:B147"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A65"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B117:B128"/>
+    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B159:B165"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A166:A181"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A110:A116"/>
+    <mergeCell ref="B89:B94"/>
     <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B184:B192"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B51:B65"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B170:B185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B73:B79"/>
-    <mergeCell ref="B113:B120"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="B80:B89"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="B129:B143"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B166:B181"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -5253,23 +5253,31 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr"/>
-      <c r="G98" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
@@ -5279,7 +5287,7 @@
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N211"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7959,12 +7959,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
@@ -7973,12 +7973,12 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N154" s="2" t="inlineStr">
@@ -7997,22 +7997,22 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -8021,7 +8021,7 @@
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
@@ -8045,22 +8045,22 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr"/>
@@ -8069,12 +8069,12 @@
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr"/>
@@ -8117,7 +8117,7 @@
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
@@ -8151,12 +8151,12 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>hazardous</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr"/>
@@ -8165,7 +8165,7 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
@@ -8180,50 +8180,50 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A159" s="2" t="n"/>
+      <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr"/>
-      <c r="G159" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>commercial-industrial</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="inlineStr">
+        <is>
+          <t>Commercial industrial</t>
+        </is>
+      </c>
       <c r="H159" s="2" t="inlineStr"/>
       <c r="I159" s="2" t="inlineStr"/>
       <c r="J159" s="2" t="inlineStr"/>
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8232,44 +8232,60 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr"/>
-      <c r="G160" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>hazardous</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous</t>
+        </is>
+      </c>
       <c r="H160" s="2" t="inlineStr"/>
       <c r="I160" s="2" t="inlineStr"/>
       <c r="J160" s="2" t="inlineStr"/>
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n"/>
-      <c r="B161" s="2" t="n"/>
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -8277,12 +8293,12 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F161" s="2" t="inlineStr"/>
@@ -8293,17 +8309,17 @@
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N161" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8333,12 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr"/>
@@ -8333,7 +8349,7 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
@@ -8357,12 +8373,12 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8373,7 +8389,7 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
@@ -8397,12 +8413,12 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>pip-reference</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8413,17 +8429,17 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8437,12 +8453,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>is-psi</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8453,44 +8469,36 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A166" s="2" t="n"/>
+      <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>pip-reference</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -8501,17 +8509,17 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8520,41 +8528,33 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>is-psi</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>tenure-type</t>
-        </is>
-      </c>
-      <c r="G167" s="2" t="inlineStr">
-        <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
+          <t>Is public service infrastructure</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr"/>
+      <c r="G167" s="2" t="inlineStr"/>
       <c r="H167" s="2" t="inlineStr"/>
       <c r="I167" s="2" t="inlineStr"/>
       <c r="J167" s="2" t="inlineStr"/>
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
@@ -8564,8 +8564,16 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n"/>
-      <c r="B168" s="2" t="n"/>
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -8573,36 +8581,28 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>housing-type</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="inlineStr">
-        <is>
-          <t>Housing type</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr"/>
       <c r="H168" s="2" t="inlineStr"/>
       <c r="I168" s="2" t="inlineStr"/>
       <c r="J168" s="2" t="inlineStr"/>
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N168" s="2" t="inlineStr">
@@ -8631,34 +8631,26 @@
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>tenure-type</t>
         </is>
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>units-unknown</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Tenure type</t>
+        </is>
+      </c>
+      <c r="H169" s="2" t="inlineStr"/>
+      <c r="I169" s="2" t="inlineStr"/>
       <c r="J169" s="2" t="inlineStr"/>
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N169" s="2" t="inlineStr">
@@ -8687,42 +8679,26 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>units-per-bedroom-no</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>no-bedrooms-unknown</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Housing type</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr"/>
+      <c r="I170" s="2" t="inlineStr"/>
+      <c r="J170" s="2" t="inlineStr"/>
+      <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N170" s="2" t="inlineStr">
@@ -8761,37 +8737,29 @@
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>no-of-bedrooms</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="inlineStr"/>
+      <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N171" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8835,22 +8803,22 @@
       </c>
       <c r="J172" s="2" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>no-bedrooms-unknown</t>
         </is>
       </c>
       <c r="K172" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N172" s="2" t="inlineStr">
@@ -8889,19 +8857,27 @@
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="J173" s="2" t="inlineStr"/>
-      <c r="K173" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>no-of-bedrooms</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
@@ -8935,34 +8911,42 @@
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>proposed-unit-breakdown</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J174" s="2" t="inlineStr"/>
-      <c r="K174" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N174" s="2" t="inlineStr">
@@ -8991,47 +8975,39 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>proposed-unit-breakdown</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>no-bedrooms-unknown</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="inlineStr"/>
+      <c r="K175" s="2" t="inlineStr"/>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N175" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9065,37 +9041,29 @@
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>no-of-bedrooms</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="J176" s="2" t="inlineStr"/>
+      <c r="K176" s="2" t="inlineStr"/>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N176" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9139,22 +9107,22 @@
       </c>
       <c r="J177" s="2" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>no-bedrooms-unknown</t>
         </is>
       </c>
       <c r="K177" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N177" s="2" t="inlineStr">
@@ -9193,19 +9161,27 @@
       </c>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="J178" s="2" t="inlineStr"/>
-      <c r="K178" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>no-of-bedrooms</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
@@ -9229,23 +9205,47 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr"/>
-      <c r="G179" s="2" t="inlineStr"/>
-      <c r="H179" s="2" t="inlineStr"/>
-      <c r="I179" s="2" t="inlineStr"/>
-      <c r="J179" s="2" t="inlineStr"/>
-      <c r="K179" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>proposed-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>units-per-bedroom-no</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr">
@@ -9269,23 +9269,39 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr"/>
-      <c r="G180" s="2" t="inlineStr"/>
-      <c r="H180" s="2" t="inlineStr"/>
-      <c r="I180" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>proposed-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>total-units</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="J180" s="2" t="inlineStr"/>
       <c r="K180" s="2" t="inlineStr"/>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M180" s="2" t="inlineStr">
@@ -9295,7 +9311,7 @@
       </c>
       <c r="N180" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9309,12 +9325,12 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Total existing units</t>
         </is>
       </c>
       <c r="F181" s="2" t="inlineStr"/>
@@ -9325,7 +9341,7 @@
       <c r="K181" s="2" t="inlineStr"/>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M181" s="2" t="inlineStr">
@@ -9340,29 +9356,21 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A182" s="2" t="n"/>
+      <c r="B182" s="2" t="n"/>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F182" s="2" t="inlineStr"/>
@@ -9373,7 +9381,7 @@
       <c r="K182" s="2" t="inlineStr"/>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M182" s="2" t="inlineStr">
@@ -9392,17 +9400,17 @@
       <c r="B183" s="2" t="n"/>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F183" s="2" t="inlineStr"/>
@@ -9413,73 +9421,65 @@
       <c r="K183" s="2" t="inlineStr"/>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M183" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N183" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>Site details</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>site-details</t>
+          <t>site-area</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>site-boundary</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr"/>
+      <c r="G184" s="2" t="inlineStr"/>
       <c r="H184" s="2" t="inlineStr"/>
       <c r="I184" s="2" t="inlineStr"/>
       <c r="J184" s="2" t="inlineStr"/>
       <c r="K184" s="2" t="inlineStr"/>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M184" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N184" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9488,41 +9488,33 @@
       <c r="B185" s="2" t="n"/>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr"/>
+      <c r="G185" s="2" t="inlineStr"/>
       <c r="H185" s="2" t="inlineStr"/>
       <c r="I185" s="2" t="inlineStr"/>
       <c r="J185" s="2" t="inlineStr"/>
       <c r="K185" s="2" t="inlineStr"/>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M185" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N185" s="2" t="inlineStr">
@@ -9532,8 +9524,16 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n"/>
-      <c r="B186" s="2" t="n"/>
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -9551,12 +9551,12 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr"/>
@@ -9565,12 +9565,12 @@
       <c r="K186" s="2" t="inlineStr"/>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M186" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N186" s="2" t="inlineStr">
@@ -9599,12 +9599,12 @@
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr"/>
@@ -9613,12 +9613,12 @@
       <c r="K187" s="2" t="inlineStr"/>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M187" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N187" s="2" t="inlineStr">
@@ -9647,12 +9647,12 @@
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr"/>
@@ -9661,12 +9661,12 @@
       <c r="K188" s="2" t="inlineStr"/>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M188" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N188" s="2" t="inlineStr">
@@ -9695,12 +9695,12 @@
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr"/>
@@ -9709,7 +9709,7 @@
       <c r="K189" s="2" t="inlineStr"/>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M189" s="2" t="inlineStr">
@@ -9743,12 +9743,12 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
       <c r="K190" s="2" t="inlineStr"/>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M190" s="2" t="inlineStr">
@@ -9791,12 +9791,12 @@
       </c>
       <c r="F191" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr"/>
@@ -9805,12 +9805,12 @@
       <c r="K191" s="2" t="inlineStr"/>
       <c r="L191" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M191" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N191" s="2" t="inlineStr">
@@ -9839,12 +9839,12 @@
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr"/>
@@ -9853,12 +9853,12 @@
       <c r="K192" s="2" t="inlineStr"/>
       <c r="L192" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M192" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N192" s="2" t="inlineStr">
@@ -9868,50 +9868,50 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A193" s="2" t="n"/>
+      <c r="B193" s="2" t="n"/>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F193" s="2" t="inlineStr"/>
-      <c r="G193" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
       <c r="H193" s="2" t="inlineStr"/>
       <c r="I193" s="2" t="inlineStr"/>
       <c r="J193" s="2" t="inlineStr"/>
       <c r="K193" s="2" t="inlineStr"/>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M193" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N193" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9920,44 +9920,60 @@
       <c r="B194" s="2" t="n"/>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr"/>
-      <c r="G194" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>uprns</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="H194" s="2" t="inlineStr"/>
       <c r="I194" s="2" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr"/>
       <c r="K194" s="2" t="inlineStr"/>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M194" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N194" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n"/>
-      <c r="B195" s="2" t="n"/>
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -9965,12 +9981,12 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="F195" s="2" t="inlineStr"/>
@@ -9981,17 +9997,17 @@
       <c r="K195" s="2" t="inlineStr"/>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M195" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N195" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10005,36 +10021,28 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr"/>
+      <c r="G196" s="2" t="inlineStr"/>
       <c r="H196" s="2" t="inlineStr"/>
       <c r="I196" s="2" t="inlineStr"/>
       <c r="J196" s="2" t="inlineStr"/>
       <c r="K196" s="2" t="inlineStr"/>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M196" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N196" s="2" t="inlineStr">
@@ -10053,31 +10061,23 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr"/>
+      <c r="G197" s="2" t="inlineStr"/>
       <c r="H197" s="2" t="inlineStr"/>
       <c r="I197" s="2" t="inlineStr"/>
       <c r="J197" s="2" t="inlineStr"/>
       <c r="K197" s="2" t="inlineStr"/>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M197" s="2" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="N197" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10111,12 +10111,12 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr"/>
@@ -10125,7 +10125,7 @@
       <c r="K198" s="2" t="inlineStr"/>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M198" s="2" t="inlineStr">
@@ -10140,45 +10140,45 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A199" s="2" t="n"/>
+      <c r="B199" s="2" t="n"/>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="F199" s="2" t="inlineStr"/>
-      <c r="G199" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="H199" s="2" t="inlineStr"/>
       <c r="I199" s="2" t="inlineStr"/>
       <c r="J199" s="2" t="inlineStr"/>
       <c r="K199" s="2" t="inlineStr"/>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M199" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N199" s="2" t="inlineStr">
@@ -10192,28 +10192,36 @@
       <c r="B200" s="2" t="n"/>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr"/>
-      <c r="G200" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H200" s="2" t="inlineStr"/>
       <c r="I200" s="2" t="inlineStr"/>
       <c r="J200" s="2" t="inlineStr"/>
       <c r="K200" s="2" t="inlineStr"/>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M200" s="2" t="inlineStr">
@@ -10223,34 +10231,34 @@
       </c>
       <c r="N200" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>trees-hedges</t>
+          <t>trade-effluent</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>trees-on-site</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="F201" s="2" t="inlineStr"/>
@@ -10261,7 +10269,7 @@
       <c r="K201" s="2" t="inlineStr"/>
       <c r="L201" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M201" s="2" t="inlineStr">
@@ -10280,17 +10288,17 @@
       <c r="B202" s="2" t="n"/>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>trees-on-adj-land</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F202" s="2" t="inlineStr"/>
@@ -10301,68 +10309,60 @@
       <c r="K202" s="2" t="inlineStr"/>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M202" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N202" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>Vehicle parking</t>
+          <t>Trees and hedges information</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>vehicle-parking</t>
+          <t>trees-hedges</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>trees-on-site</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>parking-space-type</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="inlineStr">
-        <is>
-          <t>Parking space type</t>
-        </is>
-      </c>
+          <t>Trees on site</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr"/>
       <c r="H203" s="2" t="inlineStr"/>
       <c r="I203" s="2" t="inlineStr"/>
       <c r="J203" s="2" t="inlineStr"/>
       <c r="K203" s="2" t="inlineStr"/>
       <c r="L203" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="M203" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N203" s="2" t="inlineStr">
@@ -10376,52 +10376,52 @@
       <c r="B204" s="2" t="n"/>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>trees-on-adj-land</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-type-other</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type other</t>
-        </is>
-      </c>
+          <t>Trees on adjacent land</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr"/>
+      <c r="G204" s="2" t="inlineStr"/>
       <c r="H204" s="2" t="inlineStr"/>
       <c r="I204" s="2" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr"/>
       <c r="K204" s="2" t="inlineStr"/>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="M204" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N204" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n"/>
-      <c r="B205" s="2" t="n"/>
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>vehicle-parking</t>
+        </is>
+      </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
           <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
@@ -10439,12 +10439,12 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>total-existing</t>
+          <t>parking-space-type</t>
         </is>
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Parking space type</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr"/>
@@ -10453,12 +10453,12 @@
       <c r="K205" s="2" t="inlineStr"/>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="M205" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N205" s="2" t="inlineStr">
@@ -10487,12 +10487,12 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>total-proposed</t>
+          <t>vehicle-type-other</t>
         </is>
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr"/>
@@ -10501,17 +10501,17 @@
       <c r="K206" s="2" t="inlineStr"/>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M206" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N206" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10535,12 +10535,12 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>difference-in-spaces</t>
+          <t>total-existing</t>
         </is>
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Difference in spaces</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
       <c r="K207" s="2" t="inlineStr"/>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M207" s="2" t="inlineStr">
@@ -10564,45 +10564,45 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
+      <c r="A208" s="2" t="n"/>
+      <c r="B208" s="2" t="n"/>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>needs-waste-storage-area</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr"/>
-      <c r="G208" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>total-proposed</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="inlineStr">
+        <is>
+          <t>Total proposed</t>
+        </is>
+      </c>
       <c r="H208" s="2" t="inlineStr"/>
       <c r="I208" s="2" t="inlineStr"/>
       <c r="J208" s="2" t="inlineStr"/>
       <c r="K208" s="2" t="inlineStr"/>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M208" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N208" s="2" t="inlineStr">
@@ -10616,44 +10616,60 @@
       <c r="B209" s="2" t="n"/>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>waste-storage-area-details</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
-        </is>
-      </c>
-      <c r="F209" s="2" t="inlineStr"/>
-      <c r="G209" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>difference-in-spaces</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="inlineStr">
+        <is>
+          <t>Difference in spaces</t>
+        </is>
+      </c>
       <c r="H209" s="2" t="inlineStr"/>
       <c r="I209" s="2" t="inlineStr"/>
       <c r="J209" s="2" t="inlineStr"/>
       <c r="K209" s="2" t="inlineStr"/>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="M209" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N209" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n"/>
-      <c r="B210" s="2" t="n"/>
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-collection</t>
+        </is>
+      </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
           <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
@@ -10661,12 +10677,12 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>separate-recycling-arrangements</t>
+          <t>needs-waste-storage-area</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Needs waste storage area</t>
         </is>
       </c>
       <c r="F210" s="2" t="inlineStr"/>
@@ -10677,7 +10693,7 @@
       <c r="K210" s="2" t="inlineStr"/>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="M210" s="2" t="inlineStr">
@@ -10701,12 +10717,12 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>separate-recycling-arrangements-details</t>
+          <t>waste-storage-area-details</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements details</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="F211" s="2" t="inlineStr"/>
@@ -10717,15 +10733,95 @@
       <c r="K211" s="2" t="inlineStr"/>
       <c r="L211" s="2" t="inlineStr">
         <is>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+        </is>
+      </c>
+      <c r="M211" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N211" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n"/>
+      <c r="B212" s="2" t="n"/>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>separate-recycling-arrangements</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>Separate recycling arrangements</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr"/>
+      <c r="G212" s="2" t="inlineStr"/>
+      <c r="H212" s="2" t="inlineStr"/>
+      <c r="I212" s="2" t="inlineStr"/>
+      <c r="J212" s="2" t="inlineStr"/>
+      <c r="K212" s="2" t="inlineStr"/>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Does the proposal include separate recycling arrangements</t>
+        </is>
+      </c>
+      <c r="M212" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N212" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n"/>
+      <c r="B213" s="2" t="n"/>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>separate-recycling-arrangements-details</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr"/>
+      <c r="G213" s="2" t="inlineStr"/>
+      <c r="H213" s="2" t="inlineStr"/>
+      <c r="I213" s="2" t="inlineStr"/>
+      <c r="J213" s="2" t="inlineStr"/>
+      <c r="K213" s="2" t="inlineStr"/>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
           <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
-      <c r="M211" s="2" t="inlineStr">
+      <c r="M213" s="2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="N211" s="2" t="inlineStr">
+      <c r="N213" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -10734,67 +10830,67 @@
   </sheetData>
   <mergeCells count="62">
     <mergeCell ref="B65"/>
-    <mergeCell ref="B193:B198"/>
+    <mergeCell ref="B205:B209"/>
     <mergeCell ref="B103:B109"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="B168:B183"/>
     <mergeCell ref="B79:B88"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A208:A211"/>
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="A144:A148"/>
     <mergeCell ref="B51:B64"/>
     <mergeCell ref="A79:A88"/>
-    <mergeCell ref="A184:A192"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="A117:A128"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B186:B194"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A159:A165"/>
     <mergeCell ref="A95:A98"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A193:A198"/>
     <mergeCell ref="A129:A143"/>
-    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="B210:B213"/>
     <mergeCell ref="B110:B116"/>
     <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B149:B160"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B144:B148"/>
+    <mergeCell ref="A161:A167"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="A210:A213"/>
     <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A184:A185"/>
     <mergeCell ref="A65"/>
+    <mergeCell ref="A203:A204"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="B99:B102"/>
     <mergeCell ref="B117:B128"/>
-    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="A186:A194"/>
+    <mergeCell ref="A195:A200"/>
     <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B159:B165"/>
-    <mergeCell ref="A199:A200"/>
     <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A166:A181"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A110:A116"/>
     <mergeCell ref="B89:B94"/>
+    <mergeCell ref="A149:A160"/>
     <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B184:B192"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="B161:B167"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A103:A109"/>
     <mergeCell ref="B129:B143"/>
     <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A168:A183"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B166:B181"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B203:B204"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4396,56 +4396,64 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr"/>
-      <c r="G78" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H78" s="2" t="inlineStr"/>
       <c r="I78" s="2" t="inlineStr"/>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -4463,12 +4471,12 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -4477,17 +4485,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4511,12 +4519,12 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr"/>
@@ -4525,7 +4533,7 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4535,7 +4543,7 @@
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4549,36 +4557,28 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr"/>
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4597,12 +4597,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4613,17 +4613,17 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4637,12 +4637,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4653,12 +4653,12 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4677,12 +4677,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4693,17 +4693,17 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4733,7 +4733,7 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4757,12 +4757,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4773,7 +4773,7 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
@@ -4797,12 +4797,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4813,36 +4813,44 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4853,31 +4861,23 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -4885,12 +4885,12 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4901,17 +4901,17 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
@@ -4941,12 +4941,12 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
@@ -4981,17 +4981,17 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5005,12 +5005,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -5021,7 +5021,7 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -5045,12 +5045,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5061,12 +5061,12 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
@@ -5076,21 +5076,29 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n"/>
-      <c r="B94" s="2" t="n"/>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
@@ -5101,12 +5109,12 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
@@ -5116,16 +5124,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
@@ -5149,17 +5149,17 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5173,12 +5173,12 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
@@ -5189,17 +5189,17 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5213,28 +5213,36 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H97" s="2" t="inlineStr"/>
       <c r="I97" s="2" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr"/>
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
@@ -5244,45 +5252,45 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n"/>
-      <c r="B98" s="2" t="n"/>
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>involves-hazardous-substances</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Involves hazardous substances</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
@@ -5292,16 +5300,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A99" s="2" t="n"/>
+      <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Details of hazardous substances requiring consent used as part of the development</t>
@@ -5309,23 +5309,31 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>involves-hazardous-substances</t>
+          <t>substance-types</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr"/>
-      <c r="G99" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>hazardous-substance-type</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="H99" s="2" t="inlineStr"/>
       <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
@@ -5359,12 +5367,12 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-type</t>
+          <t>hazardous-substance-other</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -5373,17 +5381,17 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5407,12 +5415,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-other</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5421,46 +5429,54 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n"/>
-      <c r="B102" s="2" t="n"/>
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substances requiring consent used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Hours of operation[]</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>use</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5469,12 +5485,12 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5484,16 +5500,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A103" s="2" t="n"/>
+      <c r="B103" s="2" t="n"/>
       <c r="C103" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -5511,12 +5519,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5525,17 +5533,17 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5559,31 +5567,39 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H104" s="2" t="inlineStr"/>
-      <c r="I104" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5617,29 +5633,29 @@
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5673,29 +5689,37 @@
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="J106" s="2" t="inlineStr"/>
-      <c r="K106" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5739,17 +5763,17 @@
       </c>
       <c r="J107" s="2" t="inlineStr">
         <is>
-          <t>open-time</t>
+          <t>close-time</t>
         </is>
       </c>
       <c r="K107" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
@@ -5783,76 +5807,68 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr"/>
+      <c r="J108" s="2" t="inlineStr"/>
+      <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n"/>
-      <c r="B109" s="2" t="n"/>
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>hours-not-known</t>
+          <t>building-element-type</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Hours not known</t>
+          <t>Building element type</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5861,31 +5877,23 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A110" s="2" t="n"/>
+      <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -5903,12 +5911,12 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5917,17 +5925,17 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5951,12 +5959,12 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -5965,7 +5973,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5999,12 +6007,12 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr"/>
@@ -6013,12 +6021,12 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
@@ -6047,12 +6055,12 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr"/>
@@ -6061,7 +6069,7 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
@@ -6085,31 +6093,23 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr"/>
       <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="N114" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6133,28 +6133,36 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N115" s="2" t="inlineStr">
@@ -6164,45 +6172,45 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n"/>
-      <c r="B116" s="2" t="n"/>
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>non-residential-change</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr"/>
       <c r="H116" s="2" t="inlineStr"/>
       <c r="I116" s="2" t="inlineStr"/>
       <c r="J116" s="2" t="inlineStr"/>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N116" s="2" t="inlineStr">
@@ -6212,16 +6220,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>non-res-floorspace</t>
-        </is>
-      </c>
+      <c r="A117" s="2" t="n"/>
+      <c r="B117" s="2" t="n"/>
       <c r="C117" s="2" t="inlineStr">
         <is>
           <t>Details of changes to non-residential floorspace in the proposed development.</t>
@@ -6229,28 +6229,36 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>non-residential-change</t>
+          <t>floorspace-details</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr"/>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
@@ -6279,12 +6287,12 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>specified-use</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
@@ -6293,17 +6301,17 @@
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N118" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6335,12 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>specified-use</t>
+          <t>existing-gross-floorspace</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr"/>
@@ -6341,17 +6349,17 @@
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N119" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6375,12 +6383,12 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>existing-gross-floorspace</t>
+          <t>floorspace-lost</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
@@ -6389,7 +6397,7 @@
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6423,12 +6431,12 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>floorspace-lost</t>
+          <t>total-gross-proposed</t>
         </is>
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr"/>
@@ -6437,7 +6445,7 @@
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6471,12 +6479,12 @@
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>total-gross-proposed</t>
+          <t>net-additional-floorspace</t>
         </is>
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr"/>
@@ -6485,7 +6493,7 @@
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
@@ -6509,22 +6517,22 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details</t>
+          <t>room-details</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>net-additional-floorspace</t>
+          <t>use-class-accommodation</t>
         </is>
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr"/>
@@ -6533,12 +6541,12 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
@@ -6567,12 +6575,12 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>use-class-accommodation</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
@@ -6581,17 +6589,17 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6615,12 +6623,12 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>existing-rooms-lost</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr"/>
@@ -6629,17 +6637,17 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6663,12 +6671,12 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>existing-rooms-lost</t>
+          <t>total-rooms-proposed</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr"/>
@@ -6677,7 +6685,7 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
@@ -6711,12 +6719,12 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>total-rooms-proposed</t>
+          <t>net-additional-rooms</t>
         </is>
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr"/>
@@ -6725,7 +6733,7 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
@@ -6740,45 +6748,45 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n"/>
-      <c r="B128" s="2" t="n"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>room-details</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>net-additional-rooms</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="inlineStr"/>
       <c r="H128" s="2" t="inlineStr"/>
       <c r="I128" s="2" t="inlineStr"/>
       <c r="J128" s="2" t="inlineStr"/>
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
@@ -6788,16 +6796,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A129" s="2" t="n"/>
+      <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -6805,12 +6805,12 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr"/>
@@ -6821,7 +6821,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6845,33 +6845,49 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr"/>
-      <c r="H130" s="2" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J130" s="2" t="inlineStr"/>
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N130" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6905,19 +6921,19 @@
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J131" s="2" t="inlineStr"/>
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
@@ -6927,7 +6943,7 @@
       </c>
       <c r="N131" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6961,19 +6977,19 @@
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J132" s="2" t="inlineStr"/>
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
@@ -7017,19 +7033,19 @@
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
@@ -7073,19 +7089,19 @@
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J134" s="2" t="inlineStr"/>
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
@@ -7095,7 +7111,7 @@
       </c>
       <c r="N134" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7119,34 +7135,26 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr"/>
       <c r="J135" s="2" t="inlineStr"/>
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
@@ -7165,36 +7173,28 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr"/>
       <c r="H136" s="2" t="inlineStr"/>
       <c r="I136" s="2" t="inlineStr"/>
       <c r="J136" s="2" t="inlineStr"/>
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
@@ -7213,23 +7213,31 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H137" s="2" t="inlineStr"/>
       <c r="I137" s="2" t="inlineStr"/>
       <c r="J137" s="2" t="inlineStr"/>
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7239,7 +7247,7 @@
       </c>
       <c r="N137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7263,12 +7271,12 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7277,12 +7285,12 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N138" s="2" t="inlineStr">
@@ -7301,41 +7309,33 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr"/>
       <c r="H139" s="2" t="inlineStr"/>
       <c r="I139" s="2" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N139" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7349,12 +7349,12 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr"/>
@@ -7365,12 +7365,12 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N140" s="2" t="inlineStr">
@@ -7389,12 +7389,12 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr"/>
@@ -7405,7 +7405,7 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
@@ -7429,12 +7429,12 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -7445,12 +7445,12 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
@@ -7460,21 +7460,29 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7485,31 +7493,23 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A144" s="2" t="n"/>
+      <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -7517,12 +7517,12 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
@@ -7533,17 +7533,17 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7557,12 +7557,12 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr"/>
@@ -7573,7 +7573,7 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
@@ -7597,12 +7597,12 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -7613,7 +7613,7 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
@@ -7637,12 +7637,12 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
@@ -7668,21 +7668,29 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -7693,7 +7701,7 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
@@ -7703,21 +7711,13 @@
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -7725,12 +7725,12 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr"/>
@@ -7741,12 +7741,12 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
@@ -7765,28 +7765,36 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N150" s="2" t="inlineStr">
@@ -7815,12 +7823,12 @@
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr"/>
@@ -7829,17 +7837,17 @@
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7863,12 +7871,12 @@
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>total-capacity</t>
         </is>
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr"/>
@@ -7877,12 +7885,12 @@
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
@@ -7911,12 +7919,12 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr"/>
@@ -7925,12 +7933,12 @@
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N153" s="2" t="inlineStr">
@@ -7959,12 +7967,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>unit-type</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
@@ -7973,12 +7981,12 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N154" s="2" t="inlineStr">
@@ -8007,12 +8015,12 @@
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -8021,12 +8029,12 @@
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
@@ -8045,22 +8053,22 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>unit-type</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr"/>
@@ -8069,12 +8077,12 @@
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
@@ -8103,12 +8111,12 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr"/>
@@ -8117,7 +8125,7 @@
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
@@ -8151,12 +8159,12 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr"/>
@@ -8165,7 +8173,7 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
@@ -8199,12 +8207,12 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr"/>
@@ -8213,7 +8221,7 @@
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
@@ -8228,64 +8236,56 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n"/>
-      <c r="B160" s="2" t="n"/>
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr"/>
+      <c r="G160" s="2" t="inlineStr"/>
       <c r="H160" s="2" t="inlineStr"/>
       <c r="I160" s="2" t="inlineStr"/>
       <c r="J160" s="2" t="inlineStr"/>
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A161" s="2" t="n"/>
+      <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -8293,12 +8293,12 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F161" s="2" t="inlineStr"/>
@@ -8309,12 +8309,12 @@
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N161" s="2" t="inlineStr">
@@ -8333,12 +8333,12 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr"/>
@@ -8349,17 +8349,17 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N162" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8373,12 +8373,12 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8389,17 +8389,17 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N163" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8413,12 +8413,12 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8429,17 +8429,17 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8453,12 +8453,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>pip-reference</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8469,12 +8469,12 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
@@ -8493,12 +8493,12 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>pip-reference</t>
+          <t>is-psi</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
+          <t>Is public service infrastructure</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -8509,36 +8509,44 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n"/>
-      <c r="B167" s="2" t="n"/>
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>is-psi</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr"/>
@@ -8549,7 +8557,7 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
@@ -8564,16 +8572,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A168" s="2" t="n"/>
+      <c r="B168" s="2" t="n"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -8581,28 +8581,36 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr"/>
-      <c r="G168" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H168" s="2" t="inlineStr"/>
       <c r="I168" s="2" t="inlineStr"/>
       <c r="J168" s="2" t="inlineStr"/>
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N168" s="2" t="inlineStr">
@@ -8631,12 +8639,12 @@
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr"/>
@@ -8645,7 +8653,7 @@
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
@@ -8679,26 +8687,34 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H170" s="2" t="inlineStr"/>
-      <c r="I170" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J170" s="2" t="inlineStr"/>
       <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N170" s="2" t="inlineStr">
@@ -8737,19 +8753,27 @@
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J171" s="2" t="inlineStr"/>
-      <c r="K171" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
@@ -8803,27 +8827,27 @@
       </c>
       <c r="J172" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K172" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N172" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8867,17 +8891,17 @@
       </c>
       <c r="J173" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K173" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
@@ -8887,7 +8911,7 @@
       </c>
       <c r="N173" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8921,27 +8945,19 @@
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr"/>
+      <c r="K174" s="2" t="inlineStr"/>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
@@ -8951,7 +8967,7 @@
       </c>
       <c r="N174" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8975,39 +8991,39 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="J175" s="2" t="inlineStr"/>
       <c r="K175" s="2" t="inlineStr"/>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N175" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9041,19 +9057,27 @@
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J176" s="2" t="inlineStr"/>
-      <c r="K176" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
@@ -9107,27 +9131,27 @@
       </c>
       <c r="J177" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K177" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N177" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9171,17 +9195,17 @@
       </c>
       <c r="J178" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K178" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
@@ -9191,7 +9215,7 @@
       </c>
       <c r="N178" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9225,27 +9249,19 @@
       </c>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I179" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="inlineStr"/>
+      <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr">
@@ -9255,7 +9271,7 @@
       </c>
       <c r="N179" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9269,39 +9285,23 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr"/>
+      <c r="H180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr"/>
       <c r="J180" s="2" t="inlineStr"/>
       <c r="K180" s="2" t="inlineStr"/>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M180" s="2" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="N180" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F181" s="2" t="inlineStr"/>
@@ -9341,7 +9341,7 @@
       <c r="K181" s="2" t="inlineStr"/>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M181" s="2" t="inlineStr">
@@ -9365,12 +9365,12 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F182" s="2" t="inlineStr"/>
@@ -9381,7 +9381,7 @@
       <c r="K182" s="2" t="inlineStr"/>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M182" s="2" t="inlineStr">
@@ -9396,21 +9396,29 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n"/>
-      <c r="B183" s="2" t="n"/>
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="F183" s="2" t="inlineStr"/>
@@ -9421,7 +9429,7 @@
       <c r="K183" s="2" t="inlineStr"/>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M183" s="2" t="inlineStr">
@@ -9436,16 +9444,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A184" s="2" t="n"/>
+      <c r="B184" s="2" t="n"/>
       <c r="C184" s="2" t="inlineStr">
         <is>
           <t>How big the site is including relevant measurements</t>
@@ -9453,12 +9453,12 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F184" s="2" t="inlineStr"/>
@@ -9469,52 +9469,68 @@
       <c r="K184" s="2" t="inlineStr"/>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M184" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N184" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n"/>
-      <c r="B185" s="2" t="n"/>
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr"/>
-      <c r="G185" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H185" s="2" t="inlineStr"/>
       <c r="I185" s="2" t="inlineStr"/>
       <c r="J185" s="2" t="inlineStr"/>
       <c r="K185" s="2" t="inlineStr"/>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M185" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N185" s="2" t="inlineStr">
@@ -9524,16 +9540,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A186" s="2" t="n"/>
+      <c r="B186" s="2" t="n"/>
       <c r="C186" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -9551,12 +9559,12 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr"/>
@@ -9565,12 +9573,12 @@
       <c r="K186" s="2" t="inlineStr"/>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M186" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N186" s="2" t="inlineStr">
@@ -9599,12 +9607,12 @@
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr"/>
@@ -9613,7 +9621,7 @@
       <c r="K187" s="2" t="inlineStr"/>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M187" s="2" t="inlineStr">
@@ -9647,12 +9655,12 @@
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr"/>
@@ -9661,12 +9669,12 @@
       <c r="K188" s="2" t="inlineStr"/>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M188" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N188" s="2" t="inlineStr">
@@ -9695,12 +9703,12 @@
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr"/>
@@ -9709,7 +9717,7 @@
       <c r="K189" s="2" t="inlineStr"/>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M189" s="2" t="inlineStr">
@@ -9743,12 +9751,12 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr"/>
@@ -9757,7 +9765,7 @@
       <c r="K190" s="2" t="inlineStr"/>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M190" s="2" t="inlineStr">
@@ -9791,12 +9799,12 @@
       </c>
       <c r="F191" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr"/>
@@ -9805,7 +9813,7 @@
       <c r="K191" s="2" t="inlineStr"/>
       <c r="L191" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M191" s="2" t="inlineStr">
@@ -9839,12 +9847,12 @@
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr"/>
@@ -9853,12 +9861,12 @@
       <c r="K192" s="2" t="inlineStr"/>
       <c r="L192" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M192" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N192" s="2" t="inlineStr">
@@ -9887,12 +9895,12 @@
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr"/>
@@ -9901,7 +9909,7 @@
       <c r="K193" s="2" t="inlineStr"/>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M193" s="2" t="inlineStr">
@@ -9916,64 +9924,56 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n"/>
-      <c r="B194" s="2" t="n"/>
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr"/>
       <c r="H194" s="2" t="inlineStr"/>
       <c r="I194" s="2" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr"/>
       <c r="K194" s="2" t="inlineStr"/>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M194" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N194" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A195" s="2" t="n"/>
+      <c r="B195" s="2" t="n"/>
       <c r="C195" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -9981,12 +9981,12 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F195" s="2" t="inlineStr"/>
@@ -9997,12 +9997,12 @@
       <c r="K195" s="2" t="inlineStr"/>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M195" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N195" s="2" t="inlineStr">
@@ -10021,12 +10021,12 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F196" s="2" t="inlineStr"/>
@@ -10037,17 +10037,17 @@
       <c r="K196" s="2" t="inlineStr"/>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M196" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N196" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10061,23 +10061,31 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr"/>
-      <c r="G197" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H197" s="2" t="inlineStr"/>
       <c r="I197" s="2" t="inlineStr"/>
       <c r="J197" s="2" t="inlineStr"/>
       <c r="K197" s="2" t="inlineStr"/>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M197" s="2" t="inlineStr">
@@ -10087,7 +10095,7 @@
       </c>
       <c r="N197" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10111,12 +10119,12 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr"/>
@@ -10125,7 +10133,7 @@
       <c r="K198" s="2" t="inlineStr"/>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M198" s="2" t="inlineStr">
@@ -10159,12 +10167,12 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr"/>
@@ -10173,7 +10181,7 @@
       <c r="K199" s="2" t="inlineStr"/>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M199" s="2" t="inlineStr">
@@ -10188,45 +10196,45 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n"/>
-      <c r="B200" s="2" t="n"/>
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>trade-effluent</t>
+        </is>
+      </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr"/>
+      <c r="G200" s="2" t="inlineStr"/>
       <c r="H200" s="2" t="inlineStr"/>
       <c r="I200" s="2" t="inlineStr"/>
       <c r="J200" s="2" t="inlineStr"/>
       <c r="K200" s="2" t="inlineStr"/>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M200" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N200" s="2" t="inlineStr">
@@ -10236,16 +10244,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A201" s="2" t="n"/>
+      <c r="B201" s="2" t="n"/>
       <c r="C201" s="2" t="inlineStr">
         <is>
           <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
@@ -10253,12 +10253,12 @@
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F201" s="2" t="inlineStr"/>
@@ -10269,36 +10269,44 @@
       <c r="K201" s="2" t="inlineStr"/>
       <c r="L201" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M201" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N201" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n"/>
-      <c r="B202" s="2" t="n"/>
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>trees-on-site</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="F202" s="2" t="inlineStr"/>
@@ -10309,31 +10317,23 @@
       <c r="K202" s="2" t="inlineStr"/>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="M202" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N202" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A203" s="2" t="n"/>
+      <c r="B203" s="2" t="n"/>
       <c r="C203" s="2" t="inlineStr">
         <is>
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
@@ -10341,12 +10341,12 @@
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>trees-on-site</t>
+          <t>trees-on-adj-land</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="F203" s="2" t="inlineStr"/>
@@ -10357,7 +10357,7 @@
       <c r="K203" s="2" t="inlineStr"/>
       <c r="L203" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="M203" s="2" t="inlineStr">
@@ -10372,37 +10372,53 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n"/>
-      <c r="B204" s="2" t="n"/>
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>vehicle-parking</t>
+        </is>
+      </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>trees-on-adj-land</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr"/>
-      <c r="G204" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>parking-space-type</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="H204" s="2" t="inlineStr"/>
       <c r="I204" s="2" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr"/>
       <c r="K204" s="2" t="inlineStr"/>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="M204" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N204" s="2" t="inlineStr">
@@ -10412,16 +10428,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-parking</t>
-        </is>
-      </c>
+      <c r="A205" s="2" t="n"/>
+      <c r="B205" s="2" t="n"/>
       <c r="C205" s="2" t="inlineStr">
         <is>
           <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
@@ -10439,12 +10447,12 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>parking-space-type</t>
+          <t>vehicle-type-other</t>
         </is>
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr"/>
@@ -10453,17 +10461,17 @@
       <c r="K205" s="2" t="inlineStr"/>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M205" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N205" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10487,12 +10495,12 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>vehicle-type-other</t>
+          <t>total-existing</t>
         </is>
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr"/>
@@ -10501,17 +10509,17 @@
       <c r="K206" s="2" t="inlineStr"/>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M206" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N206" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10535,12 +10543,12 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>total-existing</t>
+          <t>total-proposed</t>
         </is>
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr"/>
@@ -10549,7 +10557,7 @@
       <c r="K207" s="2" t="inlineStr"/>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M207" s="2" t="inlineStr">
@@ -10583,12 +10591,12 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>total-proposed</t>
+          <t>difference-in-spaces</t>
         </is>
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr"/>
@@ -10597,7 +10605,7 @@
       <c r="K208" s="2" t="inlineStr"/>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="M208" s="2" t="inlineStr">
@@ -10612,45 +10620,45 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n"/>
-      <c r="B209" s="2" t="n"/>
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-collection</t>
+        </is>
+      </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>needs-waste-storage-area</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>difference-in-spaces</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Needs waste storage area</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr"/>
+      <c r="G209" s="2" t="inlineStr"/>
       <c r="H209" s="2" t="inlineStr"/>
       <c r="I209" s="2" t="inlineStr"/>
       <c r="J209" s="2" t="inlineStr"/>
       <c r="K209" s="2" t="inlineStr"/>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="M209" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N209" s="2" t="inlineStr">
@@ -10660,16 +10668,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
+      <c r="A210" s="2" t="n"/>
+      <c r="B210" s="2" t="n"/>
       <c r="C210" s="2" t="inlineStr">
         <is>
           <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
@@ -10677,12 +10677,12 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>needs-waste-storage-area</t>
+          <t>waste-storage-area-details</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="F210" s="2" t="inlineStr"/>
@@ -10693,17 +10693,17 @@
       <c r="K210" s="2" t="inlineStr"/>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="M210" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N210" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -10717,12 +10717,12 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>waste-storage-area-details</t>
+          <t>separate-recycling-arrangements</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements</t>
         </is>
       </c>
       <c r="F211" s="2" t="inlineStr"/>
@@ -10733,17 +10733,17 @@
       <c r="K211" s="2" t="inlineStr"/>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Does the proposal include separate recycling arrangements</t>
         </is>
       </c>
       <c r="M211" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N211" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -10757,12 +10757,12 @@
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>separate-recycling-arrangements</t>
+          <t>separate-recycling-arrangements-details</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="F212" s="2" t="inlineStr"/>
@@ -10773,55 +10773,15 @@
       <c r="K212" s="2" t="inlineStr"/>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="M212" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N212" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="n"/>
-      <c r="B213" s="2" t="n"/>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>separate-recycling-arrangements-details</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr"/>
-      <c r="G213" s="2" t="inlineStr"/>
-      <c r="H213" s="2" t="inlineStr"/>
-      <c r="I213" s="2" t="inlineStr"/>
-      <c r="J213" s="2" t="inlineStr"/>
-      <c r="K213" s="2" t="inlineStr"/>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="M213" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N213" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -10829,68 +10789,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B194:B199"/>
     <mergeCell ref="B65"/>
-    <mergeCell ref="B205:B209"/>
-    <mergeCell ref="B103:B109"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B168:B183"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="A160:A166"/>
     <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A128:A142"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A185:A193"/>
     <mergeCell ref="B51:B64"/>
-    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A109:A115"/>
     <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A117:A128"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B186:B194"/>
+    <mergeCell ref="A167:A182"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A143:A147"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A95:A98"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A129:A143"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="B110:B116"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B149:B160"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="A148:A159"/>
+    <mergeCell ref="A78:A87"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="B88:B93"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B183:B184"/>
     <mergeCell ref="A65"/>
-    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="A200:A201"/>
     <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B117:B128"/>
-    <mergeCell ref="A186:A194"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B160:B166"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="B128:B142"/>
+    <mergeCell ref="B185:B193"/>
+    <mergeCell ref="B116:B127"/>
+    <mergeCell ref="A194:A199"/>
     <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A110:A116"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="A149:A160"/>
+    <mergeCell ref="B148:B159"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B167:B182"/>
     <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="B202:B203"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="B161:B167"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="B129:B143"/>
     <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A168:A183"/>
+    <mergeCell ref="A72:A77"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="A116:A127"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="A98:A101"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="M138" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N138" s="2" t="inlineStr">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="M162" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N162" s="2" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
+++ b/generated/spreadsheet/verbose/full-planning-permission-full-verbose.xlsx
@@ -7429,12 +7429,12 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -7445,12 +7445,12 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
